--- a/i_codebooks/D3_clean_spells.xlsx
+++ b/i_codebooks/D3_clean_spells.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Seafile\CVM\EHR_studies\Readiness\script_design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\emorragie_gravi\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{B4E126EC-040F-4958-A954-611B3194E6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{061EC3D2-4BCA-4730-A574-A19A401F79EE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8088" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
     <sheet name="Examples" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="167">
   <si>
     <t>medatata_name</t>
   </si>
@@ -235,15 +234,7 @@
     <t>spell_without_vax1</t>
   </si>
   <si>
-    <t>1 = spell does not contain vax1
-0 = otherwise</t>
-  </si>
-  <si>
     <t>has_vax1_before_365_days</t>
-  </si>
-  <si>
-    <t>1 = the spell has &lt;= 365 days of lookback before vax1
-0 = otherwise</t>
   </si>
   <si>
     <t>is_the_study_spell</t>
@@ -559,11 +550,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1158,20 +1149,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="132.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="132.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1179,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1187,7 +1178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="48.75">
+    <row r="5" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1211,7 +1202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1219,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1227,7 +1218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1235,7 +1226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1246,28 +1237,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" style="13" customWidth="1"/>
     <col min="2" max="2" width="31" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="13"/>
+    <col min="3" max="3" width="9.109375" style="13"/>
     <col min="4" max="4" width="39" style="13" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="32.85546875" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="13"/>
+    <col min="5" max="5" width="29.88671875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="81">
+    <row r="1" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -1302,7 +1293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
@@ -1320,7 +1311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>31</v>
       </c>
@@ -1336,7 +1327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>34</v>
       </c>
@@ -1352,7 +1343,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>35</v>
       </c>
@@ -1368,7 +1359,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
@@ -1384,7 +1375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
@@ -1398,7 +1389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
@@ -1415,7 +1406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="100.5">
+    <row r="9" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>44</v>
       </c>
@@ -1436,7 +1427,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24.75">
+    <row r="10" spans="1:11" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>49</v>
       </c>
@@ -1457,7 +1448,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="24.75">
+    <row r="11" spans="1:11" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
@@ -1476,7 +1467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="24.75">
+    <row r="12" spans="1:11" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>54</v>
       </c>
@@ -1497,7 +1488,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="24.75">
+    <row r="13" spans="1:11" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>57</v>
       </c>
@@ -1516,7 +1507,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="45.75">
+    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>60</v>
       </c>
@@ -1533,57 +1524,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>62</v>
+    <row r="15" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>30</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="121.5">
-      <c r="A17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="13" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1593,25 +1550,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E4EF3B-D631-4230-9CED-F0A1D585C210}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="57">
+    <row r="1" spans="1:3" ht="54" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1620,37 +1577,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBC33A7-2A67-4ECD-8925-745B16E53D8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1661,10 +1618,10 @@
         <v>34</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>39</v>
@@ -1700,15 +1657,15 @@
         <v>62</v>
       </c>
       <c r="Q1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="6">
         <v>24852</v>
@@ -1721,7 +1678,7 @@
         <v>2958465</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
@@ -1760,9 +1717,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="23">
         <v>35796</v>
@@ -1775,7 +1732,7 @@
         <v>43139</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G3" s="22">
         <v>1</v>
@@ -1814,9 +1771,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="23">
         <v>35796</v>
@@ -1829,7 +1786,7 @@
         <v>44349</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="22">
         <v>2</v>
@@ -1868,9 +1825,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" s="6">
         <v>35332</v>
@@ -1883,7 +1840,7 @@
         <v>2958465</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -1922,9 +1879,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="6">
         <v>16053</v>
@@ -1937,7 +1894,7 @@
         <v>2958465</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -1976,9 +1933,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="6">
         <v>42557</v>
@@ -1991,7 +1948,7 @@
         <v>2958465</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -2030,9 +1987,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="6">
         <v>43651</v>
@@ -2045,7 +2002,7 @@
         <v>2958465</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
@@ -2084,9 +2041,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" s="23">
         <v>42527</v>
@@ -2099,7 +2056,7 @@
         <v>42690</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G9" s="22">
         <v>1</v>
@@ -2138,9 +2095,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="23">
         <v>42527</v>
@@ -2153,7 +2110,7 @@
         <v>2958465</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G10" s="22">
         <v>2</v>
@@ -2192,9 +2149,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="6">
         <v>33123</v>
@@ -2207,7 +2164,7 @@
         <v>2958465</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -2246,9 +2203,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="23">
         <v>27983</v>
@@ -2261,7 +2218,7 @@
         <v>42426</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G12" s="22">
         <v>1</v>
@@ -2300,9 +2257,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" s="23">
         <v>27983</v>
@@ -2315,7 +2272,7 @@
         <v>2958465</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G13" s="22">
         <v>2</v>
@@ -2354,9 +2311,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="6">
         <v>25207</v>
@@ -2369,7 +2326,7 @@
         <v>2958465</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -2408,9 +2365,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B15" s="23">
         <v>32466</v>
@@ -2423,7 +2380,7 @@
         <v>43525</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G15" s="22">
         <v>1</v>
@@ -2462,9 +2419,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="23">
         <v>32466</v>
@@ -2477,7 +2434,7 @@
         <v>44452</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G16" s="22">
         <v>2</v>
@@ -2516,12 +2473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6">
@@ -2531,7 +2488,7 @@
         <v>2958465</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
@@ -2570,9 +2527,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="6">
         <v>25596</v>
@@ -2585,7 +2542,7 @@
         <v>2958465</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G18" s="5">
         <v>1</v>
@@ -2624,9 +2581,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" s="6">
         <v>15639</v>
@@ -2639,7 +2596,7 @@
         <v>2958465</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G19" s="5">
         <v>1</v>
@@ -2678,9 +2635,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="6">
         <v>23450</v>
@@ -2693,7 +2650,7 @@
         <v>2958465</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
@@ -2732,9 +2689,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" s="6">
         <v>34171</v>
@@ -2747,7 +2704,7 @@
         <v>2958465</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
@@ -2786,9 +2743,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" s="6">
         <v>9796</v>
@@ -2803,7 +2760,7 @@
         <v>43704</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G22" s="5">
         <v>1</v>
@@ -2842,9 +2799,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" s="6">
         <v>22392</v>
@@ -2857,7 +2814,7 @@
         <v>2958465</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G23" s="5">
         <v>1</v>
@@ -2896,9 +2853,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" s="23">
         <v>29173</v>
@@ -2911,7 +2868,7 @@
         <v>39678</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G24" s="22">
         <v>1</v>
@@ -2950,9 +2907,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B25" s="23">
         <v>29173</v>
@@ -2965,7 +2922,7 @@
         <v>2958465</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G25" s="22">
         <v>2</v>
@@ -3004,9 +2961,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" s="6">
         <v>16585</v>
@@ -3019,7 +2976,7 @@
         <v>2958465</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -3058,9 +3015,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B27" s="6">
         <v>20525</v>
@@ -3073,7 +3030,7 @@
         <v>2958465</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G27" s="5">
         <v>1</v>
@@ -3112,9 +3069,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B28" s="6">
         <v>25785</v>
@@ -3127,7 +3084,7 @@
         <v>2958465</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G28" s="5">
         <v>1</v>
@@ -3166,9 +3123,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B29" s="6">
         <v>42059</v>
@@ -3181,7 +3138,7 @@
         <v>43825</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G29" s="5">
         <v>1</v>
@@ -3220,9 +3177,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" s="23">
         <v>19585</v>
@@ -3235,7 +3192,7 @@
         <v>42608</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G30" s="22">
         <v>1</v>
@@ -3274,9 +3231,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B31" s="23">
         <v>19585</v>
@@ -3289,7 +3246,7 @@
         <v>2958465</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G31" s="22">
         <v>2</v>
@@ -3328,9 +3285,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B32" s="6">
         <v>30109</v>
@@ -3343,7 +3300,7 @@
         <v>2958465</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G32" s="5">
         <v>1</v>
@@ -3382,9 +3339,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B33" s="6">
         <v>31298</v>
@@ -3397,7 +3354,7 @@
         <v>2958465</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G33" s="5">
         <v>1</v>
@@ -3436,9 +3393,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B34" s="23">
         <v>32828</v>
@@ -3451,7 +3408,7 @@
         <v>40748</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G34" s="22">
         <v>1</v>
@@ -3490,9 +3447,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B35" s="23">
         <v>32828</v>
@@ -3505,7 +3462,7 @@
         <v>2958465</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G35" s="22">
         <v>2</v>
@@ -3544,9 +3501,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B36" s="6">
         <v>34016</v>
@@ -3559,7 +3516,7 @@
         <v>43917</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G36" s="5">
         <v>1</v>
@@ -3598,9 +3555,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B37" s="6">
         <v>28345</v>
@@ -3613,7 +3570,7 @@
         <v>2958465</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G37" s="5">
         <v>1</v>
@@ -3652,9 +3609,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B38" s="6">
         <v>13932</v>
@@ -3667,7 +3624,7 @@
         <v>2958465</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G38" s="5">
         <v>1</v>
@@ -3706,9 +3663,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B39" s="6">
         <v>25026</v>
@@ -3721,7 +3678,7 @@
         <v>2958465</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G39" s="5">
         <v>1</v>
@@ -3760,9 +3717,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B40" s="6">
         <v>33143</v>
@@ -3775,7 +3732,7 @@
         <v>2958465</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G40" s="5">
         <v>1</v>
@@ -3814,9 +3771,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B41" s="6">
         <v>10238</v>
@@ -3829,7 +3786,7 @@
         <v>2958465</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G41" s="5">
         <v>1</v>
@@ -3868,9 +3825,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" s="6">
         <v>24979</v>
@@ -3883,7 +3840,7 @@
         <v>2958465</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
@@ -3922,9 +3879,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B43" s="6">
         <v>31073</v>
@@ -3937,7 +3894,7 @@
         <v>2958465</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G43" s="5">
         <v>1</v>
@@ -3976,9 +3933,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B44" s="6">
         <v>19185</v>
@@ -3991,7 +3948,7 @@
         <v>2958465</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G44" s="5">
         <v>1</v>
@@ -4030,9 +3987,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B45" s="6">
         <v>29580</v>
@@ -4045,7 +4002,7 @@
         <v>2958465</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G45" s="5">
         <v>1</v>
@@ -4084,9 +4041,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B46" s="6">
         <v>42012</v>
@@ -4099,7 +4056,7 @@
         <v>2958465</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G46" s="5">
         <v>1</v>
@@ -4138,9 +4095,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B47" s="6">
         <v>34366</v>
@@ -4153,7 +4110,7 @@
         <v>2958465</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G47" s="5">
         <v>1</v>
@@ -4192,9 +4149,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B48" s="6">
         <v>13651</v>
@@ -4207,7 +4164,7 @@
         <v>2958465</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G48" s="5">
         <v>1</v>
@@ -4246,9 +4203,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B49" s="23">
         <v>30326</v>
@@ -4261,7 +4218,7 @@
         <v>41197</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G49" s="22">
         <v>1</v>
@@ -4300,9 +4257,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B50" s="23">
         <v>30326</v>
@@ -4315,7 +4272,7 @@
         <v>2958465</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G50" s="22">
         <v>2</v>
@@ -4354,9 +4311,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B51" s="6">
         <v>8153</v>
@@ -4369,7 +4326,7 @@
         <v>2958465</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G51" s="5">
         <v>1</v>
@@ -4408,9 +4365,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B52" s="6">
         <v>10646</v>
@@ -4423,7 +4380,7 @@
         <v>2958465</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G52" s="5">
         <v>1</v>
@@ -4462,9 +4419,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B53" s="23">
         <v>34011</v>
@@ -4477,7 +4434,7 @@
         <v>40834</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G53" s="22">
         <v>1</v>
@@ -4516,9 +4473,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B54" s="23">
         <v>34011</v>
@@ -4531,7 +4488,7 @@
         <v>2958465</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G54" s="22">
         <v>2</v>
@@ -4570,9 +4527,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B55" s="6">
         <v>25393</v>
@@ -4585,7 +4542,7 @@
         <v>40832</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G55" s="5">
         <v>1</v>
@@ -4624,9 +4581,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B56" s="6">
         <v>25381</v>
@@ -4639,7 +4596,7 @@
         <v>2958465</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G56" s="5">
         <v>1</v>
@@ -4678,9 +4635,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B57" s="6">
         <v>27157</v>
@@ -4693,7 +4650,7 @@
         <v>2958465</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G57" s="5">
         <v>1</v>
@@ -4732,9 +4689,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B58" s="6">
         <v>30351</v>
@@ -4747,7 +4704,7 @@
         <v>2958465</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G58" s="5">
         <v>1</v>
@@ -4786,9 +4743,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B59" s="6">
         <v>33269</v>
@@ -4801,7 +4758,7 @@
         <v>43861</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G59" s="5">
         <v>1</v>
@@ -4840,9 +4797,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" s="6">
         <v>14146</v>
@@ -4855,7 +4812,7 @@
         <v>2958465</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G60" s="5">
         <v>1</v>
@@ -4894,9 +4851,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B61" s="23">
         <v>14277</v>
@@ -4911,7 +4868,7 @@
         <v>43287</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G61" s="22">
         <v>1</v>
@@ -4950,9 +4907,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B62" s="23">
         <v>14277</v>
@@ -4967,7 +4924,7 @@
         <v>43683</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G62" s="22">
         <v>2</v>
@@ -5006,9 +4963,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B63" s="6">
         <v>34543</v>
@@ -5021,7 +4978,7 @@
         <v>2958465</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G63" s="5">
         <v>1</v>
@@ -5060,9 +5017,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B64" s="6">
         <v>16304</v>
@@ -5075,7 +5032,7 @@
         <v>42798</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G64" s="5">
         <v>1</v>
@@ -5114,9 +5071,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B65" s="23">
         <v>41587</v>
@@ -5129,7 +5086,7 @@
         <v>43679</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G65" s="22">
         <v>1</v>
@@ -5168,9 +5125,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B66" s="23">
         <v>41587</v>
@@ -5183,7 +5140,7 @@
         <v>44405</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G66" s="22">
         <v>2</v>
@@ -5222,9 +5179,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B67" s="6">
         <v>35288</v>
@@ -5237,7 +5194,7 @@
         <v>2958465</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G67" s="5">
         <v>1</v>
@@ -5276,9 +5233,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B68" s="6">
         <v>27600</v>
@@ -5291,7 +5248,7 @@
         <v>2958465</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G68" s="5">
         <v>1</v>
@@ -5330,9 +5287,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B69" s="6">
         <v>42538</v>
@@ -5345,7 +5302,7 @@
         <v>2958465</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G69" s="5">
         <v>1</v>
@@ -5384,9 +5341,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B70" s="6">
         <v>25986</v>
@@ -5399,7 +5356,7 @@
         <v>43834</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G70" s="5">
         <v>1</v>
@@ -5438,9 +5395,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B71" s="6">
         <v>11346</v>
@@ -5453,7 +5410,7 @@
         <v>2958465</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G71" s="5">
         <v>1</v>
@@ -5492,9 +5449,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B72" s="6">
         <v>17828</v>
@@ -5507,7 +5464,7 @@
         <v>2958465</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G72" s="5">
         <v>1</v>
@@ -5546,9 +5503,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B73" s="6">
         <v>12434</v>
@@ -5561,7 +5518,7 @@
         <v>2958465</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G73" s="5">
         <v>1</v>
@@ -5600,9 +5557,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B74" s="23">
         <v>34602</v>
@@ -5615,7 +5572,7 @@
         <v>35601</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G74" s="22">
         <v>1</v>
@@ -5654,9 +5611,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B75" s="23">
         <v>34602</v>
@@ -5669,7 +5626,7 @@
         <v>2958465</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G75" s="22">
         <v>2</v>
@@ -5708,9 +5665,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B76" s="25">
         <v>34525</v>
@@ -5723,7 +5680,7 @@
         <v>35655</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G76" s="24">
         <v>1</v>
@@ -5762,9 +5719,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B77" s="25">
         <v>34525</v>
@@ -5777,7 +5734,7 @@
         <v>2958465</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G77" s="24">
         <v>2</v>
@@ -5816,9 +5773,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B78" s="6">
         <v>43190</v>
@@ -5831,7 +5788,7 @@
         <v>2958465</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G78" s="5">
         <v>1</v>
@@ -5870,9 +5827,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B79" s="23">
         <v>28768</v>
@@ -5885,7 +5842,7 @@
         <v>40689</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G79" s="22">
         <v>1</v>
@@ -5924,9 +5881,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B80" s="23">
         <v>28768</v>
@@ -5939,7 +5896,7 @@
         <v>2958465</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G80" s="22">
         <v>2</v>
@@ -5978,9 +5935,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B81" s="6">
         <v>32438</v>
@@ -5993,7 +5950,7 @@
         <v>2958465</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G81" s="5">
         <v>1</v>
@@ -6032,9 +5989,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B82" s="6">
         <v>34773</v>
@@ -6047,7 +6004,7 @@
         <v>42441</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G82" s="5">
         <v>1</v>
@@ -6086,9 +6043,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B83" s="23">
         <v>28819</v>
@@ -6101,7 +6058,7 @@
         <v>41663</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G83" s="22">
         <v>1</v>
@@ -6140,9 +6097,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B84" s="23">
         <v>28819</v>
@@ -6155,7 +6112,7 @@
         <v>2958465</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G84" s="22">
         <v>2</v>
@@ -6194,9 +6151,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B85" s="6">
         <v>28035</v>
@@ -6209,7 +6166,7 @@
         <v>2958465</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G85" s="5">
         <v>1</v>
@@ -6248,9 +6205,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B86" s="6">
         <v>27878</v>
@@ -6263,7 +6220,7 @@
         <v>43931</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G86" s="5">
         <v>1</v>
@@ -6302,9 +6259,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B87" s="23">
         <v>19188</v>
@@ -6317,7 +6274,7 @@
         <v>42380</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G87" s="22">
         <v>1</v>
@@ -6356,9 +6313,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B88" s="23">
         <v>19188</v>
@@ -6371,7 +6328,7 @@
         <v>2958465</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G88" s="22">
         <v>2</v>
@@ -6410,9 +6367,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B89" s="6">
         <v>22940</v>
@@ -6425,7 +6382,7 @@
         <v>2958465</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G89" s="5">
         <v>1</v>
@@ -6464,9 +6421,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B90" s="6">
         <v>13195</v>
@@ -6479,7 +6436,7 @@
         <v>2958465</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G90" s="5">
         <v>1</v>
@@ -6518,9 +6475,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B91" s="6">
         <v>26825</v>
@@ -6533,7 +6490,7 @@
         <v>2958465</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G91" s="5">
         <v>1</v>
@@ -6572,9 +6529,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B92" s="6">
         <v>27074</v>
@@ -6587,7 +6544,7 @@
         <v>2958465</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G92" s="5">
         <v>1</v>
@@ -6626,9 +6583,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B93" s="6">
         <v>29696</v>
@@ -6641,7 +6598,7 @@
         <v>2958465</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G93" s="5">
         <v>1</v>
@@ -6680,9 +6637,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B94" s="6">
         <v>36245</v>
@@ -6695,7 +6652,7 @@
         <v>2958465</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G94" s="5">
         <v>1</v>
@@ -6734,9 +6691,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B95" s="6">
         <v>32848</v>
@@ -6749,7 +6706,7 @@
         <v>2958465</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G95" s="5">
         <v>1</v>
@@ -6788,9 +6745,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B96" s="6">
         <v>38490</v>
@@ -6803,7 +6760,7 @@
         <v>2958465</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G96" s="5">
         <v>1</v>
@@ -6842,9 +6799,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B97" s="6">
         <v>26549</v>
@@ -6857,7 +6814,7 @@
         <v>2958465</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G97" s="5">
         <v>1</v>
@@ -6896,9 +6853,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B98" s="6">
         <v>17833</v>
@@ -6911,7 +6868,7 @@
         <v>2958465</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G98" s="5">
         <v>1</v>
@@ -6950,9 +6907,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B99" s="6">
         <v>25843</v>
@@ -6965,7 +6922,7 @@
         <v>2958465</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G99" s="5">
         <v>1</v>
@@ -7004,9 +6961,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B100" s="6">
         <v>25241</v>
@@ -7019,7 +6976,7 @@
         <v>2958465</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G100" s="5">
         <v>1</v>
@@ -7058,9 +7015,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B101" s="6">
         <v>31866</v>
@@ -7073,7 +7030,7 @@
         <v>2958465</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G101" s="5">
         <v>1</v>
@@ -7112,9 +7069,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B102" s="6">
         <v>26912</v>
@@ -7127,7 +7084,7 @@
         <v>2958465</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G102" s="5">
         <v>1</v>
@@ -7166,9 +7123,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B103" s="23">
         <v>14426</v>
@@ -7181,7 +7138,7 @@
         <v>35624</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G103" s="22">
         <v>1</v>
@@ -7220,9 +7177,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B104" s="23">
         <v>14426</v>
@@ -7235,7 +7192,7 @@
         <v>2958465</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G104" s="22">
         <v>2</v>
@@ -7274,9 +7231,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B105" s="27">
         <v>32137</v>
@@ -7289,7 +7246,7 @@
         <v>42264</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G105" s="26">
         <v>1</v>
@@ -7328,9 +7285,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B106" s="27">
         <v>32137</v>
@@ -7343,7 +7300,7 @@
         <v>42994</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G106" s="26">
         <v>2</v>
@@ -7382,9 +7339,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B107" s="27">
         <v>32137</v>
@@ -7397,7 +7354,7 @@
         <v>2958465</v>
       </c>
       <c r="F107" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G107" s="26">
         <v>3</v>
@@ -7436,9 +7393,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B108" s="6">
         <v>20919</v>
@@ -7451,7 +7408,7 @@
         <v>44073</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G108" s="5">
         <v>1</v>
@@ -7490,9 +7447,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B109" s="23">
         <v>25336</v>
@@ -7505,7 +7462,7 @@
         <v>40710</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G109" s="22">
         <v>1</v>
@@ -7544,9 +7501,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B110" s="23">
         <v>25336</v>
@@ -7559,7 +7516,7 @@
         <v>41413</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G110" s="22">
         <v>2</v>
@@ -7598,9 +7555,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B111" s="23">
         <v>25336</v>
@@ -7613,7 +7570,7 @@
         <v>43965</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G111" s="22">
         <v>3</v>
@@ -7652,9 +7609,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B112" s="6">
         <v>25761</v>
@@ -7667,7 +7624,7 @@
         <v>2958465</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G112" s="5">
         <v>1</v>
@@ -7706,9 +7663,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B113" s="23">
         <v>2958465</v>
@@ -7721,7 +7678,7 @@
         <v>42258</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G113" s="22">
         <v>1</v>
@@ -7760,9 +7717,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B114" s="23">
         <v>2958465</v>
@@ -7775,7 +7732,7 @@
         <v>2958465</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G114" s="22">
         <v>2</v>
@@ -7814,9 +7771,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B115" s="6">
         <v>41316</v>
@@ -7829,7 +7786,7 @@
         <v>44410</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G115" s="5">
         <v>1</v>
@@ -7868,9 +7825,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B116" s="6">
         <v>14982</v>
@@ -7883,7 +7840,7 @@
         <v>2958465</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G116" s="5">
         <v>1</v>
@@ -7928,15 +7885,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -8181,6 +8129,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8194,13 +8151,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{157D3097-6FB3-44DD-B527-ED767981CE0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{157D3097-6FB3-44DD-B527-ED767981CE0B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/i_codebooks/D3_clean_spells.xlsx
+++ b/i_codebooks/D3_clean_spells.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="155">
   <si>
     <t>medatata_name</t>
   </si>
@@ -157,9 +157,6 @@
     <t>op_meaning</t>
   </si>
   <si>
-    <t>categorical</t>
-  </si>
-  <si>
     <t>num_spell</t>
   </si>
   <si>
@@ -175,62 +172,24 @@
     <t>binary</t>
   </si>
   <si>
-    <t>0 = op_start_date != entry_spell_category
-1 = op_start_date == entry_spell_category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if birth_date &gt; entry_spell_category then max(entry_spell_category, birth_date) 
-else if birth_date &lt; op_start_date - 60 then birth_date (datasource-specific???) 
-else entry_spell_category
-</t>
-  </si>
-  <si>
     <t>see Vocabulary</t>
   </si>
   <si>
     <t>op_end_date_cleaned</t>
   </si>
   <si>
-    <t>0 = op_end_date != exit_spell_category
-1 = op_end_date == exit_spell_category</t>
-  </si>
-  <si>
-    <t>min(exit_spell_category, death_date)</t>
-  </si>
-  <si>
     <t>starts_at_birth</t>
   </si>
   <si>
-    <t>0 = op_start_date &gt; birth_date
-1 = op_start_date == birth_date</t>
-  </si>
-  <si>
     <t>starts_after_ending</t>
   </si>
   <si>
-    <t>0 = op_start_date &lt;= op_end_date
-1 = op_start_date &gt; op_end_date</t>
-  </si>
-  <si>
-    <t>spells having this variable = 1 must be discrded</t>
-  </si>
-  <si>
     <t>no_overlap_study_period</t>
   </si>
   <si>
-    <t xml:space="preserve">binary </t>
-  </si>
-  <si>
-    <t>exit_spell_category &lt; study_start or entry_spell_category &gt; study_end</t>
-  </si>
-  <si>
     <t>less_than_365_days_and_not_starts_at_birth</t>
   </si>
   <si>
-    <t>1 = the spell is long &lt;= 365 days and starts_at_birth == 0
-0 = otherwise</t>
-  </si>
-  <si>
     <t>spell_without_vax1</t>
   </si>
   <si>
@@ -238,10 +197,6 @@
   </si>
   <si>
     <t>is_the_study_spell</t>
-  </si>
-  <si>
-    <t>1 = starts_after_ending == 0 &amp; no_overlap_study_period == 0 &amp; (has_vax1_before_365_days == 0 | (all_spells_not_including_vax1_or_before_365_days &amp; less_than_365_days_and_not_starts_at_birth))
-0 = otherwise</t>
   </si>
   <si>
     <t>for each person there is only 1 spell having this variable == 1</t>
@@ -775,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -814,9 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1238,13 +1190,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A15"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,7 +1205,7 @@
     <col min="2" max="2" width="31" style="13" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="13"/>
     <col min="4" max="4" width="39" style="13" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" style="17" customWidth="1"/>
     <col min="6" max="6" width="32.88671875" style="13" customWidth="1"/>
     <col min="7" max="16384" width="9.109375" style="13"/>
   </cols>
@@ -1377,10 +1329,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>36</v>
@@ -1389,159 +1344,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>42</v>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
+      <c r="K8" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="I11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="I13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1561,14 +1379,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="54" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>69</v>
+      <c r="A1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1618,16 +1436,16 @@
         <v>34</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>35</v>
@@ -1636,36 +1454,36 @@
         <v>38</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="R1" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B2" s="6">
         <v>24852</v>
@@ -1678,7 +1496,7 @@
         <v>2958465</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G2" s="5">
         <v>1</v>
@@ -1718,116 +1536,116 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="23">
+      <c r="A3" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="22">
         <v>35796</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22">
         <v>42712</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>43139</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="22">
-        <v>1</v>
-      </c>
-      <c r="H3" s="23">
+      <c r="F3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1</v>
+      </c>
+      <c r="H3" s="22">
         <v>42712</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="22">
         <v>43139</v>
       </c>
-      <c r="J3" s="22">
-        <v>1</v>
-      </c>
-      <c r="K3" s="22">
-        <v>1</v>
-      </c>
-      <c r="L3" s="22">
-        <v>0</v>
-      </c>
-      <c r="M3" s="22">
-        <v>0</v>
-      </c>
-      <c r="N3" s="22">
-        <v>1</v>
-      </c>
-      <c r="O3" s="22">
-        <v>0</v>
-      </c>
-      <c r="P3" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="22">
-        <v>0</v>
-      </c>
-      <c r="R3" s="22">
+      <c r="J3" s="21">
+        <v>1</v>
+      </c>
+      <c r="K3" s="21">
+        <v>1</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0</v>
+      </c>
+      <c r="M3" s="21">
+        <v>0</v>
+      </c>
+      <c r="N3" s="21">
+        <v>1</v>
+      </c>
+      <c r="O3" s="21">
+        <v>0</v>
+      </c>
+      <c r="P3" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>0</v>
+      </c>
+      <c r="R3" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="A4" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="22">
         <v>35796</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22">
         <v>43402</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>44349</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="F4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="21">
         <v>2</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>43402</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <v>44349</v>
       </c>
-      <c r="J4" s="22">
-        <v>1</v>
-      </c>
-      <c r="K4" s="22">
-        <v>1</v>
-      </c>
-      <c r="L4" s="22">
-        <v>0</v>
-      </c>
-      <c r="M4" s="22">
-        <v>0</v>
-      </c>
-      <c r="N4" s="22">
-        <v>0</v>
-      </c>
-      <c r="O4" s="22">
-        <v>0</v>
-      </c>
-      <c r="P4" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="22">
-        <v>0</v>
-      </c>
-      <c r="R4" s="22">
+      <c r="J4" s="21">
+        <v>1</v>
+      </c>
+      <c r="K4" s="21">
+        <v>1</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21">
+        <v>0</v>
+      </c>
+      <c r="O4" s="21">
+        <v>0</v>
+      </c>
+      <c r="P4" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>0</v>
+      </c>
+      <c r="R4" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B5" s="6">
         <v>35332</v>
@@ -1840,7 +1658,7 @@
         <v>2958465</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G5" s="5">
         <v>1</v>
@@ -1881,7 +1699,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B6" s="6">
         <v>16053</v>
@@ -1894,7 +1712,7 @@
         <v>2958465</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G6" s="5">
         <v>1</v>
@@ -1935,7 +1753,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B7" s="6">
         <v>42557</v>
@@ -1948,7 +1766,7 @@
         <v>2958465</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -1989,7 +1807,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B8" s="6">
         <v>43651</v>
@@ -2002,7 +1820,7 @@
         <v>2958465</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
@@ -2042,116 +1860,116 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="23">
+      <c r="A9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="22">
         <v>42527</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22">
         <v>42523</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>42690</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="22">
-        <v>1</v>
-      </c>
-      <c r="H9" s="23">
+      <c r="F9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22">
         <v>42527</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>42690</v>
       </c>
-      <c r="J9" s="22">
-        <v>0</v>
-      </c>
-      <c r="K9" s="22">
-        <v>1</v>
-      </c>
-      <c r="L9" s="22">
-        <v>1</v>
-      </c>
-      <c r="M9" s="22">
-        <v>0</v>
-      </c>
-      <c r="N9" s="22">
-        <v>1</v>
-      </c>
-      <c r="O9" s="22">
-        <v>0</v>
-      </c>
-      <c r="P9" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="22">
-        <v>0</v>
-      </c>
-      <c r="R9" s="22">
+      <c r="J9" s="21">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
+        <v>1</v>
+      </c>
+      <c r="L9" s="21">
+        <v>1</v>
+      </c>
+      <c r="M9" s="21">
+        <v>0</v>
+      </c>
+      <c r="N9" s="21">
+        <v>1</v>
+      </c>
+      <c r="O9" s="21">
+        <v>0</v>
+      </c>
+      <c r="P9" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>0</v>
+      </c>
+      <c r="R9" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="23">
+      <c r="A10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="22">
         <v>42527</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22">
         <v>42929</v>
       </c>
-      <c r="E10" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="22">
+      <c r="E10" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="21">
         <v>2</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>42929</v>
       </c>
-      <c r="I10" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="J10" s="22">
-        <v>1</v>
-      </c>
-      <c r="K10" s="22">
-        <v>1</v>
-      </c>
-      <c r="L10" s="22">
-        <v>0</v>
-      </c>
-      <c r="M10" s="22">
-        <v>0</v>
-      </c>
-      <c r="N10" s="22">
-        <v>0</v>
-      </c>
-      <c r="O10" s="22">
-        <v>0</v>
-      </c>
-      <c r="P10" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>0</v>
-      </c>
-      <c r="R10" s="22">
+      <c r="I10" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="J10" s="21">
+        <v>1</v>
+      </c>
+      <c r="K10" s="21">
+        <v>1</v>
+      </c>
+      <c r="L10" s="21">
+        <v>0</v>
+      </c>
+      <c r="M10" s="21">
+        <v>0</v>
+      </c>
+      <c r="N10" s="21">
+        <v>0</v>
+      </c>
+      <c r="O10" s="21">
+        <v>0</v>
+      </c>
+      <c r="P10" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>0</v>
+      </c>
+      <c r="R10" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B11" s="6">
         <v>33123</v>
@@ -2164,7 +1982,7 @@
         <v>2958465</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G11" s="5">
         <v>1</v>
@@ -2204,116 +2022,116 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="23">
+      <c r="A12" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="22">
         <v>27983</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22">
         <v>29374</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>42426</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="22">
-        <v>1</v>
-      </c>
-      <c r="H12" s="23">
+      <c r="F12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22">
         <v>29374</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>42426</v>
       </c>
-      <c r="J12" s="22">
-        <v>1</v>
-      </c>
-      <c r="K12" s="22">
-        <v>1</v>
-      </c>
-      <c r="L12" s="22">
-        <v>0</v>
-      </c>
-      <c r="M12" s="22">
-        <v>0</v>
-      </c>
-      <c r="N12" s="22">
-        <v>1</v>
-      </c>
-      <c r="O12" s="22">
-        <v>0</v>
-      </c>
-      <c r="P12" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="22">
-        <v>0</v>
-      </c>
-      <c r="R12" s="22">
+      <c r="J12" s="21">
+        <v>1</v>
+      </c>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0</v>
+      </c>
+      <c r="M12" s="21">
+        <v>0</v>
+      </c>
+      <c r="N12" s="21">
+        <v>1</v>
+      </c>
+      <c r="O12" s="21">
+        <v>0</v>
+      </c>
+      <c r="P12" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>0</v>
+      </c>
+      <c r="R12" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="23">
+      <c r="A13" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="22">
         <v>27983</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22">
         <v>44180</v>
       </c>
-      <c r="E13" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="22">
+      <c r="E13" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="21">
         <v>2</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>44180</v>
       </c>
-      <c r="I13" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="J13" s="22">
-        <v>1</v>
-      </c>
-      <c r="K13" s="22">
-        <v>1</v>
-      </c>
-      <c r="L13" s="22">
-        <v>0</v>
-      </c>
-      <c r="M13" s="22">
-        <v>0</v>
-      </c>
-      <c r="N13" s="22">
-        <v>0</v>
-      </c>
-      <c r="O13" s="22">
-        <v>1</v>
-      </c>
-      <c r="P13" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="22">
-        <v>0</v>
-      </c>
-      <c r="R13" s="22">
+      <c r="I13" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="J13" s="21">
+        <v>1</v>
+      </c>
+      <c r="K13" s="21">
+        <v>1</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
+        <v>0</v>
+      </c>
+      <c r="N13" s="21">
+        <v>0</v>
+      </c>
+      <c r="O13" s="21">
+        <v>1</v>
+      </c>
+      <c r="P13" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>0</v>
+      </c>
+      <c r="R13" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B14" s="6">
         <v>25207</v>
@@ -2326,7 +2144,7 @@
         <v>2958465</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G14" s="5">
         <v>1</v>
@@ -2366,119 +2184,119 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="23">
+      <c r="A15" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="22">
         <v>32466</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22">
         <v>42946</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>43525</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="22">
-        <v>1</v>
-      </c>
-      <c r="H15" s="23">
+      <c r="F15" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+      <c r="H15" s="22">
         <v>42946</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <v>43525</v>
       </c>
-      <c r="J15" s="22">
-        <v>1</v>
-      </c>
-      <c r="K15" s="22">
-        <v>1</v>
-      </c>
-      <c r="L15" s="22">
-        <v>0</v>
-      </c>
-      <c r="M15" s="22">
-        <v>0</v>
-      </c>
-      <c r="N15" s="22">
-        <v>0</v>
-      </c>
-      <c r="O15" s="22">
-        <v>0</v>
-      </c>
-      <c r="P15" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="22">
-        <v>0</v>
-      </c>
-      <c r="R15" s="22">
+      <c r="J15" s="21">
+        <v>1</v>
+      </c>
+      <c r="K15" s="21">
+        <v>1</v>
+      </c>
+      <c r="L15" s="21">
+        <v>0</v>
+      </c>
+      <c r="M15" s="21">
+        <v>0</v>
+      </c>
+      <c r="N15" s="21">
+        <v>0</v>
+      </c>
+      <c r="O15" s="21">
+        <v>0</v>
+      </c>
+      <c r="P15" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>0</v>
+      </c>
+      <c r="R15" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="23">
+      <c r="A16" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="22">
         <v>32466</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22">
         <v>44021</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>44452</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="22">
+      <c r="F16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="21">
         <v>2</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>44021</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <v>44452</v>
       </c>
-      <c r="J16" s="22">
-        <v>1</v>
-      </c>
-      <c r="K16" s="22">
-        <v>1</v>
-      </c>
-      <c r="L16" s="22">
-        <v>0</v>
-      </c>
-      <c r="M16" s="22">
-        <v>0</v>
-      </c>
-      <c r="N16" s="22">
-        <v>0</v>
-      </c>
-      <c r="O16" s="22">
-        <v>1</v>
-      </c>
-      <c r="P16" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="22">
-        <v>0</v>
-      </c>
-      <c r="R16" s="22">
+      <c r="J16" s="21">
+        <v>1</v>
+      </c>
+      <c r="K16" s="21">
+        <v>1</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0</v>
+      </c>
+      <c r="M16" s="21">
+        <v>0</v>
+      </c>
+      <c r="N16" s="21">
+        <v>0</v>
+      </c>
+      <c r="O16" s="21">
+        <v>1</v>
+      </c>
+      <c r="P16" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>0</v>
+      </c>
+      <c r="R16" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6">
@@ -2488,7 +2306,7 @@
         <v>2958465</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
@@ -2529,7 +2347,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B18" s="6">
         <v>25596</v>
@@ -2542,7 +2360,7 @@
         <v>2958465</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G18" s="5">
         <v>1</v>
@@ -2583,7 +2401,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B19" s="6">
         <v>15639</v>
@@ -2596,7 +2414,7 @@
         <v>2958465</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G19" s="5">
         <v>1</v>
@@ -2637,7 +2455,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B20" s="6">
         <v>23450</v>
@@ -2650,7 +2468,7 @@
         <v>2958465</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
@@ -2691,7 +2509,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B21" s="6">
         <v>34171</v>
@@ -2704,7 +2522,7 @@
         <v>2958465</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
@@ -2745,7 +2563,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B22" s="6">
         <v>9796</v>
@@ -2760,7 +2578,7 @@
         <v>43704</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G22" s="5">
         <v>1</v>
@@ -2801,7 +2619,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B23" s="6">
         <v>22392</v>
@@ -2814,7 +2632,7 @@
         <v>2958465</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G23" s="5">
         <v>1</v>
@@ -2854,116 +2672,116 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="23">
+      <c r="A24" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="22">
         <v>29173</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22">
         <v>37805</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>39678</v>
       </c>
-      <c r="F24" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="22">
-        <v>1</v>
-      </c>
-      <c r="H24" s="23">
+      <c r="F24" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="21">
+        <v>1</v>
+      </c>
+      <c r="H24" s="22">
         <v>37805</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>39678</v>
       </c>
-      <c r="J24" s="22">
-        <v>1</v>
-      </c>
-      <c r="K24" s="22">
-        <v>1</v>
-      </c>
-      <c r="L24" s="22">
-        <v>0</v>
-      </c>
-      <c r="M24" s="22">
-        <v>0</v>
-      </c>
-      <c r="N24" s="22">
-        <v>1</v>
-      </c>
-      <c r="O24" s="22">
-        <v>0</v>
-      </c>
-      <c r="P24" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="22">
-        <v>0</v>
-      </c>
-      <c r="R24" s="22">
+      <c r="J24" s="21">
+        <v>1</v>
+      </c>
+      <c r="K24" s="21">
+        <v>1</v>
+      </c>
+      <c r="L24" s="21">
+        <v>0</v>
+      </c>
+      <c r="M24" s="21">
+        <v>0</v>
+      </c>
+      <c r="N24" s="21">
+        <v>1</v>
+      </c>
+      <c r="O24" s="21">
+        <v>0</v>
+      </c>
+      <c r="P24" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>0</v>
+      </c>
+      <c r="R24" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="23">
+      <c r="A25" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="22">
         <v>29173</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22">
         <v>42437</v>
       </c>
-      <c r="E25" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="22">
+      <c r="E25" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="21">
         <v>2</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>42437</v>
       </c>
-      <c r="I25" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="J25" s="22">
-        <v>1</v>
-      </c>
-      <c r="K25" s="22">
-        <v>1</v>
-      </c>
-      <c r="L25" s="22">
-        <v>0</v>
-      </c>
-      <c r="M25" s="22">
-        <v>0</v>
-      </c>
-      <c r="N25" s="22">
-        <v>0</v>
-      </c>
-      <c r="O25" s="22">
-        <v>0</v>
-      </c>
-      <c r="P25" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="22">
-        <v>0</v>
-      </c>
-      <c r="R25" s="22">
+      <c r="I25" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="J25" s="21">
+        <v>1</v>
+      </c>
+      <c r="K25" s="21">
+        <v>1</v>
+      </c>
+      <c r="L25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
+        <v>0</v>
+      </c>
+      <c r="N25" s="21">
+        <v>0</v>
+      </c>
+      <c r="O25" s="21">
+        <v>0</v>
+      </c>
+      <c r="P25" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>0</v>
+      </c>
+      <c r="R25" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B26" s="6">
         <v>16585</v>
@@ -2976,7 +2794,7 @@
         <v>2958465</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -3017,7 +2835,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B27" s="6">
         <v>20525</v>
@@ -3030,7 +2848,7 @@
         <v>2958465</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G27" s="5">
         <v>1</v>
@@ -3071,7 +2889,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B28" s="6">
         <v>25785</v>
@@ -3084,7 +2902,7 @@
         <v>2958465</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G28" s="5">
         <v>1</v>
@@ -3125,7 +2943,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B29" s="6">
         <v>42059</v>
@@ -3138,7 +2956,7 @@
         <v>43825</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G29" s="5">
         <v>1</v>
@@ -3178,116 +2996,116 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="23">
+      <c r="A30" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="22">
         <v>19585</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22">
         <v>36661</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <v>42608</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="22">
-        <v>1</v>
-      </c>
-      <c r="H30" s="23">
+      <c r="F30" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="21">
+        <v>1</v>
+      </c>
+      <c r="H30" s="22">
         <v>36661</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <v>42608</v>
       </c>
-      <c r="J30" s="22">
-        <v>1</v>
-      </c>
-      <c r="K30" s="22">
-        <v>1</v>
-      </c>
-      <c r="L30" s="22">
-        <v>0</v>
-      </c>
-      <c r="M30" s="22">
-        <v>0</v>
-      </c>
-      <c r="N30" s="22">
-        <v>1</v>
-      </c>
-      <c r="O30" s="22">
-        <v>0</v>
-      </c>
-      <c r="P30" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="22">
-        <v>0</v>
-      </c>
-      <c r="R30" s="22">
+      <c r="J30" s="21">
+        <v>1</v>
+      </c>
+      <c r="K30" s="21">
+        <v>1</v>
+      </c>
+      <c r="L30" s="21">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
+        <v>0</v>
+      </c>
+      <c r="N30" s="21">
+        <v>1</v>
+      </c>
+      <c r="O30" s="21">
+        <v>0</v>
+      </c>
+      <c r="P30" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="21">
+        <v>0</v>
+      </c>
+      <c r="R30" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="23">
+      <c r="A31" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="22">
         <v>19585</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22">
         <v>43270</v>
       </c>
-      <c r="E31" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="22">
+      <c r="E31" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="21">
         <v>2</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="22">
         <v>43270</v>
       </c>
-      <c r="I31" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="J31" s="22">
-        <v>1</v>
-      </c>
-      <c r="K31" s="22">
-        <v>1</v>
-      </c>
-      <c r="L31" s="22">
-        <v>0</v>
-      </c>
-      <c r="M31" s="22">
-        <v>0</v>
-      </c>
-      <c r="N31" s="22">
-        <v>0</v>
-      </c>
-      <c r="O31" s="22">
-        <v>0</v>
-      </c>
-      <c r="P31" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="22">
-        <v>0</v>
-      </c>
-      <c r="R31" s="22">
+      <c r="I31" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="J31" s="21">
+        <v>1</v>
+      </c>
+      <c r="K31" s="21">
+        <v>1</v>
+      </c>
+      <c r="L31" s="21">
+        <v>0</v>
+      </c>
+      <c r="M31" s="21">
+        <v>0</v>
+      </c>
+      <c r="N31" s="21">
+        <v>0</v>
+      </c>
+      <c r="O31" s="21">
+        <v>0</v>
+      </c>
+      <c r="P31" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="21">
+        <v>0</v>
+      </c>
+      <c r="R31" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B32" s="6">
         <v>30109</v>
@@ -3300,7 +3118,7 @@
         <v>2958465</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G32" s="5">
         <v>1</v>
@@ -3341,7 +3159,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B33" s="6">
         <v>31298</v>
@@ -3354,7 +3172,7 @@
         <v>2958465</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G33" s="5">
         <v>1</v>
@@ -3394,116 +3212,116 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="23">
+      <c r="A34" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="22">
         <v>32828</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23">
+      <c r="C34" s="22"/>
+      <c r="D34" s="22">
         <v>40682</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <v>40748</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="22">
-        <v>1</v>
-      </c>
-      <c r="H34" s="23">
+      <c r="F34" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="21">
+        <v>1</v>
+      </c>
+      <c r="H34" s="22">
         <v>40682</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="22">
         <v>40748</v>
       </c>
-      <c r="J34" s="22">
-        <v>1</v>
-      </c>
-      <c r="K34" s="22">
-        <v>1</v>
-      </c>
-      <c r="L34" s="22">
-        <v>0</v>
-      </c>
-      <c r="M34" s="22">
-        <v>0</v>
-      </c>
-      <c r="N34" s="22">
-        <v>1</v>
-      </c>
-      <c r="O34" s="22">
-        <v>1</v>
-      </c>
-      <c r="P34" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="22">
-        <v>0</v>
-      </c>
-      <c r="R34" s="22">
+      <c r="J34" s="21">
+        <v>1</v>
+      </c>
+      <c r="K34" s="21">
+        <v>1</v>
+      </c>
+      <c r="L34" s="21">
+        <v>0</v>
+      </c>
+      <c r="M34" s="21">
+        <v>0</v>
+      </c>
+      <c r="N34" s="21">
+        <v>1</v>
+      </c>
+      <c r="O34" s="21">
+        <v>1</v>
+      </c>
+      <c r="P34" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="21">
+        <v>0</v>
+      </c>
+      <c r="R34" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="23">
+      <c r="A35" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="22">
         <v>32828</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22">
         <v>42691</v>
       </c>
-      <c r="E35" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="22">
+      <c r="E35" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="21">
         <v>2</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="22">
         <v>42691</v>
       </c>
-      <c r="I35" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="J35" s="22">
-        <v>1</v>
-      </c>
-      <c r="K35" s="22">
-        <v>1</v>
-      </c>
-      <c r="L35" s="22">
-        <v>0</v>
-      </c>
-      <c r="M35" s="22">
-        <v>0</v>
-      </c>
-      <c r="N35" s="22">
-        <v>0</v>
-      </c>
-      <c r="O35" s="22">
-        <v>0</v>
-      </c>
-      <c r="P35" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="22">
-        <v>0</v>
-      </c>
-      <c r="R35" s="22">
+      <c r="I35" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="J35" s="21">
+        <v>1</v>
+      </c>
+      <c r="K35" s="21">
+        <v>1</v>
+      </c>
+      <c r="L35" s="21">
+        <v>0</v>
+      </c>
+      <c r="M35" s="21">
+        <v>0</v>
+      </c>
+      <c r="N35" s="21">
+        <v>0</v>
+      </c>
+      <c r="O35" s="21">
+        <v>0</v>
+      </c>
+      <c r="P35" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="21">
+        <v>0</v>
+      </c>
+      <c r="R35" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B36" s="6">
         <v>34016</v>
@@ -3516,7 +3334,7 @@
         <v>43917</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G36" s="5">
         <v>1</v>
@@ -3557,7 +3375,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B37" s="6">
         <v>28345</v>
@@ -3570,7 +3388,7 @@
         <v>2958465</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G37" s="5">
         <v>1</v>
@@ -3611,7 +3429,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B38" s="6">
         <v>13932</v>
@@ -3624,7 +3442,7 @@
         <v>2958465</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G38" s="5">
         <v>1</v>
@@ -3665,7 +3483,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B39" s="6">
         <v>25026</v>
@@ -3678,7 +3496,7 @@
         <v>2958465</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G39" s="5">
         <v>1</v>
@@ -3719,7 +3537,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B40" s="6">
         <v>33143</v>
@@ -3732,7 +3550,7 @@
         <v>2958465</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G40" s="5">
         <v>1</v>
@@ -3773,7 +3591,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B41" s="6">
         <v>10238</v>
@@ -3786,7 +3604,7 @@
         <v>2958465</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G41" s="5">
         <v>1</v>
@@ -3827,7 +3645,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B42" s="6">
         <v>24979</v>
@@ -3840,7 +3658,7 @@
         <v>2958465</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
@@ -3881,7 +3699,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B43" s="6">
         <v>31073</v>
@@ -3894,7 +3712,7 @@
         <v>2958465</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G43" s="5">
         <v>1</v>
@@ -3935,7 +3753,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B44" s="6">
         <v>19185</v>
@@ -3948,7 +3766,7 @@
         <v>2958465</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G44" s="5">
         <v>1</v>
@@ -3989,7 +3807,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B45" s="6">
         <v>29580</v>
@@ -4002,7 +3820,7 @@
         <v>2958465</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G45" s="5">
         <v>1</v>
@@ -4043,7 +3861,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B46" s="6">
         <v>42012</v>
@@ -4056,7 +3874,7 @@
         <v>2958465</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G46" s="5">
         <v>1</v>
@@ -4097,7 +3915,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B47" s="6">
         <v>34366</v>
@@ -4110,7 +3928,7 @@
         <v>2958465</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G47" s="5">
         <v>1</v>
@@ -4151,7 +3969,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B48" s="6">
         <v>13651</v>
@@ -4164,7 +3982,7 @@
         <v>2958465</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G48" s="5">
         <v>1</v>
@@ -4204,116 +4022,116 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="23">
+      <c r="A49" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="22">
         <v>30326</v>
       </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23">
+      <c r="C49" s="22"/>
+      <c r="D49" s="22">
         <v>41065</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="22">
         <v>41197</v>
       </c>
-      <c r="F49" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="22">
-        <v>1</v>
-      </c>
-      <c r="H49" s="23">
+      <c r="F49" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="21">
+        <v>1</v>
+      </c>
+      <c r="H49" s="22">
         <v>41065</v>
       </c>
-      <c r="I49" s="23">
+      <c r="I49" s="22">
         <v>41197</v>
       </c>
-      <c r="J49" s="22">
-        <v>1</v>
-      </c>
-      <c r="K49" s="22">
-        <v>1</v>
-      </c>
-      <c r="L49" s="22">
-        <v>0</v>
-      </c>
-      <c r="M49" s="22">
-        <v>0</v>
-      </c>
-      <c r="N49" s="22">
-        <v>1</v>
-      </c>
-      <c r="O49" s="22">
-        <v>1</v>
-      </c>
-      <c r="P49" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="22">
-        <v>0</v>
-      </c>
-      <c r="R49" s="22">
+      <c r="J49" s="21">
+        <v>1</v>
+      </c>
+      <c r="K49" s="21">
+        <v>1</v>
+      </c>
+      <c r="L49" s="21">
+        <v>0</v>
+      </c>
+      <c r="M49" s="21">
+        <v>0</v>
+      </c>
+      <c r="N49" s="21">
+        <v>1</v>
+      </c>
+      <c r="O49" s="21">
+        <v>1</v>
+      </c>
+      <c r="P49" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="21">
+        <v>0</v>
+      </c>
+      <c r="R49" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" s="23">
+      <c r="A50" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="22">
         <v>30326</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23">
+      <c r="C50" s="22"/>
+      <c r="D50" s="22">
         <v>41980</v>
       </c>
-      <c r="E50" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="22">
+      <c r="E50" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="21">
         <v>2</v>
       </c>
-      <c r="H50" s="23">
+      <c r="H50" s="22">
         <v>41980</v>
       </c>
-      <c r="I50" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="J50" s="22">
-        <v>1</v>
-      </c>
-      <c r="K50" s="22">
-        <v>1</v>
-      </c>
-      <c r="L50" s="22">
-        <v>0</v>
-      </c>
-      <c r="M50" s="22">
-        <v>0</v>
-      </c>
-      <c r="N50" s="22">
-        <v>0</v>
-      </c>
-      <c r="O50" s="22">
-        <v>0</v>
-      </c>
-      <c r="P50" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="22">
-        <v>0</v>
-      </c>
-      <c r="R50" s="22">
+      <c r="I50" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="J50" s="21">
+        <v>1</v>
+      </c>
+      <c r="K50" s="21">
+        <v>1</v>
+      </c>
+      <c r="L50" s="21">
+        <v>0</v>
+      </c>
+      <c r="M50" s="21">
+        <v>0</v>
+      </c>
+      <c r="N50" s="21">
+        <v>0</v>
+      </c>
+      <c r="O50" s="21">
+        <v>0</v>
+      </c>
+      <c r="P50" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="21">
+        <v>0</v>
+      </c>
+      <c r="R50" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B51" s="6">
         <v>8153</v>
@@ -4326,7 +4144,7 @@
         <v>2958465</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G51" s="5">
         <v>1</v>
@@ -4367,7 +4185,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B52" s="6">
         <v>10646</v>
@@ -4380,7 +4198,7 @@
         <v>2958465</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G52" s="5">
         <v>1</v>
@@ -4420,116 +4238,116 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="23">
+      <c r="A53" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="22">
         <v>34011</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23">
+      <c r="C53" s="22"/>
+      <c r="D53" s="22">
         <v>40081</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="22">
         <v>40834</v>
       </c>
-      <c r="F53" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" s="22">
-        <v>1</v>
-      </c>
-      <c r="H53" s="23">
+      <c r="F53" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="21">
+        <v>1</v>
+      </c>
+      <c r="H53" s="22">
         <v>40081</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="22">
         <v>40834</v>
       </c>
-      <c r="J53" s="22">
-        <v>1</v>
-      </c>
-      <c r="K53" s="22">
-        <v>1</v>
-      </c>
-      <c r="L53" s="22">
-        <v>0</v>
-      </c>
-      <c r="M53" s="22">
-        <v>0</v>
-      </c>
-      <c r="N53" s="22">
-        <v>1</v>
-      </c>
-      <c r="O53" s="22">
-        <v>0</v>
-      </c>
-      <c r="P53" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="22">
-        <v>0</v>
-      </c>
-      <c r="R53" s="22">
+      <c r="J53" s="21">
+        <v>1</v>
+      </c>
+      <c r="K53" s="21">
+        <v>1</v>
+      </c>
+      <c r="L53" s="21">
+        <v>0</v>
+      </c>
+      <c r="M53" s="21">
+        <v>0</v>
+      </c>
+      <c r="N53" s="21">
+        <v>1</v>
+      </c>
+      <c r="O53" s="21">
+        <v>0</v>
+      </c>
+      <c r="P53" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="21">
+        <v>0</v>
+      </c>
+      <c r="R53" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" s="23">
+      <c r="A54" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="22">
         <v>34011</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23">
+      <c r="C54" s="22"/>
+      <c r="D54" s="22">
         <v>42095</v>
       </c>
-      <c r="E54" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" s="22">
+      <c r="E54" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="21">
         <v>2</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="22">
         <v>42095</v>
       </c>
-      <c r="I54" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="J54" s="22">
-        <v>1</v>
-      </c>
-      <c r="K54" s="22">
-        <v>1</v>
-      </c>
-      <c r="L54" s="22">
-        <v>0</v>
-      </c>
-      <c r="M54" s="22">
-        <v>0</v>
-      </c>
-      <c r="N54" s="22">
-        <v>0</v>
-      </c>
-      <c r="O54" s="22">
-        <v>0</v>
-      </c>
-      <c r="P54" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="22">
-        <v>0</v>
-      </c>
-      <c r="R54" s="22">
+      <c r="I54" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="J54" s="21">
+        <v>1</v>
+      </c>
+      <c r="K54" s="21">
+        <v>1</v>
+      </c>
+      <c r="L54" s="21">
+        <v>0</v>
+      </c>
+      <c r="M54" s="21">
+        <v>0</v>
+      </c>
+      <c r="N54" s="21">
+        <v>0</v>
+      </c>
+      <c r="O54" s="21">
+        <v>0</v>
+      </c>
+      <c r="P54" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="21">
+        <v>0</v>
+      </c>
+      <c r="R54" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B55" s="6">
         <v>25393</v>
@@ -4542,7 +4360,7 @@
         <v>40832</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G55" s="5">
         <v>1</v>
@@ -4583,7 +4401,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B56" s="6">
         <v>25381</v>
@@ -4596,7 +4414,7 @@
         <v>2958465</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G56" s="5">
         <v>1</v>
@@ -4637,7 +4455,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B57" s="6">
         <v>27157</v>
@@ -4650,7 +4468,7 @@
         <v>2958465</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G57" s="5">
         <v>1</v>
@@ -4691,7 +4509,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B58" s="6">
         <v>30351</v>
@@ -4704,7 +4522,7 @@
         <v>2958465</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G58" s="5">
         <v>1</v>
@@ -4745,7 +4563,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B59" s="6">
         <v>33269</v>
@@ -4758,7 +4576,7 @@
         <v>43861</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G59" s="5">
         <v>1</v>
@@ -4799,7 +4617,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B60" s="6">
         <v>14146</v>
@@ -4812,7 +4630,7 @@
         <v>2958465</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G60" s="5">
         <v>1</v>
@@ -4852,120 +4670,120 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" s="23">
+      <c r="A61" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="22">
         <v>14277</v>
       </c>
-      <c r="C61" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="D61" s="23">
+      <c r="C61" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="D61" s="22">
         <v>43238</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="22">
         <v>43287</v>
       </c>
-      <c r="F61" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" s="22">
-        <v>1</v>
-      </c>
-      <c r="H61" s="23">
+      <c r="F61" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="21">
+        <v>1</v>
+      </c>
+      <c r="H61" s="22">
         <v>43238</v>
       </c>
-      <c r="I61" s="23">
+      <c r="I61" s="22">
         <v>43287</v>
       </c>
-      <c r="J61" s="22">
-        <v>1</v>
-      </c>
-      <c r="K61" s="22">
-        <v>1</v>
-      </c>
-      <c r="L61" s="22">
-        <v>0</v>
-      </c>
-      <c r="M61" s="22">
-        <v>0</v>
-      </c>
-      <c r="N61" s="22">
-        <v>1</v>
-      </c>
-      <c r="O61" s="22">
-        <v>1</v>
-      </c>
-      <c r="P61" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="22">
-        <v>0</v>
-      </c>
-      <c r="R61" s="22">
+      <c r="J61" s="21">
+        <v>1</v>
+      </c>
+      <c r="K61" s="21">
+        <v>1</v>
+      </c>
+      <c r="L61" s="21">
+        <v>0</v>
+      </c>
+      <c r="M61" s="21">
+        <v>0</v>
+      </c>
+      <c r="N61" s="21">
+        <v>1</v>
+      </c>
+      <c r="O61" s="21">
+        <v>1</v>
+      </c>
+      <c r="P61" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="21">
+        <v>0</v>
+      </c>
+      <c r="R61" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="23">
+      <c r="A62" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="22">
         <v>14277</v>
       </c>
-      <c r="C62" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="D62" s="23">
+      <c r="C62" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="D62" s="22">
         <v>43517</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="22">
         <v>43683</v>
       </c>
-      <c r="F62" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" s="22">
+      <c r="F62" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="21">
         <v>2</v>
       </c>
-      <c r="H62" s="23">
+      <c r="H62" s="22">
         <v>43517</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I62" s="22">
         <v>43683</v>
       </c>
-      <c r="J62" s="22">
-        <v>1</v>
-      </c>
-      <c r="K62" s="22">
-        <v>1</v>
-      </c>
-      <c r="L62" s="22">
-        <v>0</v>
-      </c>
-      <c r="M62" s="22">
-        <v>0</v>
-      </c>
-      <c r="N62" s="22">
-        <v>0</v>
-      </c>
-      <c r="O62" s="22">
-        <v>1</v>
-      </c>
-      <c r="P62" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="22">
-        <v>0</v>
-      </c>
-      <c r="R62" s="22">
+      <c r="J62" s="21">
+        <v>1</v>
+      </c>
+      <c r="K62" s="21">
+        <v>1</v>
+      </c>
+      <c r="L62" s="21">
+        <v>0</v>
+      </c>
+      <c r="M62" s="21">
+        <v>0</v>
+      </c>
+      <c r="N62" s="21">
+        <v>0</v>
+      </c>
+      <c r="O62" s="21">
+        <v>1</v>
+      </c>
+      <c r="P62" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="21">
+        <v>0</v>
+      </c>
+      <c r="R62" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B63" s="6">
         <v>34543</v>
@@ -4978,7 +4796,7 @@
         <v>2958465</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G63" s="5">
         <v>1</v>
@@ -5019,7 +4837,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B64" s="6">
         <v>16304</v>
@@ -5032,7 +4850,7 @@
         <v>42798</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G64" s="5">
         <v>1</v>
@@ -5072,116 +4890,116 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A65" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="23">
+      <c r="A65" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="22">
         <v>41587</v>
       </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23">
+      <c r="C65" s="22"/>
+      <c r="D65" s="22">
         <v>43482</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="22">
         <v>43679</v>
       </c>
-      <c r="F65" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" s="22">
-        <v>1</v>
-      </c>
-      <c r="H65" s="23">
+      <c r="F65" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" s="21">
+        <v>1</v>
+      </c>
+      <c r="H65" s="22">
         <v>43482</v>
       </c>
-      <c r="I65" s="23">
+      <c r="I65" s="22">
         <v>43679</v>
       </c>
-      <c r="J65" s="22">
-        <v>1</v>
-      </c>
-      <c r="K65" s="22">
-        <v>1</v>
-      </c>
-      <c r="L65" s="22">
-        <v>0</v>
-      </c>
-      <c r="M65" s="22">
-        <v>0</v>
-      </c>
-      <c r="N65" s="22">
-        <v>0</v>
-      </c>
-      <c r="O65" s="22">
-        <v>1</v>
-      </c>
-      <c r="P65" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="22">
-        <v>0</v>
-      </c>
-      <c r="R65" s="22">
+      <c r="J65" s="21">
+        <v>1</v>
+      </c>
+      <c r="K65" s="21">
+        <v>1</v>
+      </c>
+      <c r="L65" s="21">
+        <v>0</v>
+      </c>
+      <c r="M65" s="21">
+        <v>0</v>
+      </c>
+      <c r="N65" s="21">
+        <v>0</v>
+      </c>
+      <c r="O65" s="21">
+        <v>1</v>
+      </c>
+      <c r="P65" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="21">
+        <v>0</v>
+      </c>
+      <c r="R65" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" s="23">
+      <c r="A66" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="22">
         <v>41587</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23">
+      <c r="C66" s="22"/>
+      <c r="D66" s="22">
         <v>43919</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="22">
         <v>44405</v>
       </c>
-      <c r="F66" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" s="22">
+      <c r="F66" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="21">
         <v>2</v>
       </c>
-      <c r="H66" s="23">
+      <c r="H66" s="22">
         <v>43919</v>
       </c>
-      <c r="I66" s="23">
+      <c r="I66" s="22">
         <v>44405</v>
       </c>
-      <c r="J66" s="22">
-        <v>1</v>
-      </c>
-      <c r="K66" s="22">
-        <v>1</v>
-      </c>
-      <c r="L66" s="22">
-        <v>0</v>
-      </c>
-      <c r="M66" s="22">
-        <v>0</v>
-      </c>
-      <c r="N66" s="22">
-        <v>0</v>
-      </c>
-      <c r="O66" s="22">
-        <v>0</v>
-      </c>
-      <c r="P66" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="22">
-        <v>0</v>
-      </c>
-      <c r="R66" s="22">
+      <c r="J66" s="21">
+        <v>1</v>
+      </c>
+      <c r="K66" s="21">
+        <v>1</v>
+      </c>
+      <c r="L66" s="21">
+        <v>0</v>
+      </c>
+      <c r="M66" s="21">
+        <v>0</v>
+      </c>
+      <c r="N66" s="21">
+        <v>0</v>
+      </c>
+      <c r="O66" s="21">
+        <v>0</v>
+      </c>
+      <c r="P66" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="21">
+        <v>0</v>
+      </c>
+      <c r="R66" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B67" s="6">
         <v>35288</v>
@@ -5194,7 +5012,7 @@
         <v>2958465</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G67" s="5">
         <v>1</v>
@@ -5235,7 +5053,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B68" s="6">
         <v>27600</v>
@@ -5248,7 +5066,7 @@
         <v>2958465</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G68" s="5">
         <v>1</v>
@@ -5289,7 +5107,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B69" s="6">
         <v>42538</v>
@@ -5302,7 +5120,7 @@
         <v>2958465</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G69" s="5">
         <v>1</v>
@@ -5343,7 +5161,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B70" s="6">
         <v>25986</v>
@@ -5356,7 +5174,7 @@
         <v>43834</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G70" s="5">
         <v>1</v>
@@ -5397,7 +5215,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B71" s="6">
         <v>11346</v>
@@ -5410,7 +5228,7 @@
         <v>2958465</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G71" s="5">
         <v>1</v>
@@ -5451,7 +5269,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B72" s="6">
         <v>17828</v>
@@ -5464,7 +5282,7 @@
         <v>2958465</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G72" s="5">
         <v>1</v>
@@ -5505,7 +5323,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B73" s="6">
         <v>12434</v>
@@ -5518,7 +5336,7 @@
         <v>2958465</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G73" s="5">
         <v>1</v>
@@ -5558,224 +5376,224 @@
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A74" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B74" s="23">
+      <c r="A74" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="22">
         <v>34602</v>
       </c>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23">
+      <c r="C74" s="22"/>
+      <c r="D74" s="22">
         <v>34651</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="22">
         <v>35601</v>
       </c>
-      <c r="F74" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G74" s="22">
-        <v>1</v>
-      </c>
-      <c r="H74" s="23">
+      <c r="F74" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74" s="21">
+        <v>1</v>
+      </c>
+      <c r="H74" s="22">
         <v>34602</v>
       </c>
-      <c r="I74" s="23">
+      <c r="I74" s="22">
         <v>35601</v>
       </c>
-      <c r="J74" s="22">
-        <v>0</v>
-      </c>
-      <c r="K74" s="22">
-        <v>1</v>
-      </c>
-      <c r="L74" s="22">
-        <v>1</v>
-      </c>
-      <c r="M74" s="22">
-        <v>0</v>
-      </c>
-      <c r="N74" s="22">
-        <v>1</v>
-      </c>
-      <c r="O74" s="22">
-        <v>0</v>
-      </c>
-      <c r="P74" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="22">
-        <v>0</v>
-      </c>
-      <c r="R74" s="22">
+      <c r="J74" s="21">
+        <v>0</v>
+      </c>
+      <c r="K74" s="21">
+        <v>1</v>
+      </c>
+      <c r="L74" s="21">
+        <v>1</v>
+      </c>
+      <c r="M74" s="21">
+        <v>0</v>
+      </c>
+      <c r="N74" s="21">
+        <v>1</v>
+      </c>
+      <c r="O74" s="21">
+        <v>0</v>
+      </c>
+      <c r="P74" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="21">
+        <v>0</v>
+      </c>
+      <c r="R74" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A75" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" s="23">
+      <c r="A75" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="22">
         <v>34602</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23">
+      <c r="C75" s="22"/>
+      <c r="D75" s="22">
         <v>39801</v>
       </c>
-      <c r="E75" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="F75" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G75" s="22">
+      <c r="E75" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G75" s="21">
         <v>2</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H75" s="22">
         <v>39801</v>
       </c>
-      <c r="I75" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="J75" s="22">
-        <v>1</v>
-      </c>
-      <c r="K75" s="22">
-        <v>1</v>
-      </c>
-      <c r="L75" s="22">
-        <v>0</v>
-      </c>
-      <c r="M75" s="22">
-        <v>0</v>
-      </c>
-      <c r="N75" s="22">
-        <v>0</v>
-      </c>
-      <c r="O75" s="22">
-        <v>0</v>
-      </c>
-      <c r="P75" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="22">
-        <v>0</v>
-      </c>
-      <c r="R75" s="22">
+      <c r="I75" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="J75" s="21">
+        <v>1</v>
+      </c>
+      <c r="K75" s="21">
+        <v>1</v>
+      </c>
+      <c r="L75" s="21">
+        <v>0</v>
+      </c>
+      <c r="M75" s="21">
+        <v>0</v>
+      </c>
+      <c r="N75" s="21">
+        <v>0</v>
+      </c>
+      <c r="O75" s="21">
+        <v>0</v>
+      </c>
+      <c r="P75" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="21">
+        <v>0</v>
+      </c>
+      <c r="R75" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A76" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" s="25">
+      <c r="A76" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="24">
         <v>34525</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25">
+      <c r="C76" s="24"/>
+      <c r="D76" s="24">
         <v>34525</v>
       </c>
-      <c r="E76" s="25">
+      <c r="E76" s="24">
         <v>35655</v>
       </c>
-      <c r="F76" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G76" s="24">
-        <v>1</v>
-      </c>
-      <c r="H76" s="25">
+      <c r="F76" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G76" s="23">
+        <v>1</v>
+      </c>
+      <c r="H76" s="24">
         <v>34525</v>
       </c>
-      <c r="I76" s="25">
+      <c r="I76" s="24">
         <v>35655</v>
       </c>
-      <c r="J76" s="24">
-        <v>1</v>
-      </c>
-      <c r="K76" s="24">
-        <v>1</v>
-      </c>
-      <c r="L76" s="24">
-        <v>1</v>
-      </c>
-      <c r="M76" s="24">
-        <v>0</v>
-      </c>
-      <c r="N76" s="24">
-        <v>1</v>
-      </c>
-      <c r="O76" s="24">
-        <v>0</v>
-      </c>
-      <c r="P76" s="24">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="24">
-        <v>0</v>
-      </c>
-      <c r="R76" s="24">
+      <c r="J76" s="23">
+        <v>1</v>
+      </c>
+      <c r="K76" s="23">
+        <v>1</v>
+      </c>
+      <c r="L76" s="23">
+        <v>1</v>
+      </c>
+      <c r="M76" s="23">
+        <v>0</v>
+      </c>
+      <c r="N76" s="23">
+        <v>1</v>
+      </c>
+      <c r="O76" s="23">
+        <v>0</v>
+      </c>
+      <c r="P76" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="23">
+        <v>0</v>
+      </c>
+      <c r="R76" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A77" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="25">
+      <c r="A77" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="24">
         <v>34525</v>
       </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25">
+      <c r="C77" s="24"/>
+      <c r="D77" s="24">
         <v>39429</v>
       </c>
-      <c r="E77" s="25">
-        <v>2958465</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G77" s="24">
+      <c r="E77" s="24">
+        <v>2958465</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G77" s="23">
         <v>2</v>
       </c>
-      <c r="H77" s="25">
+      <c r="H77" s="24">
         <v>39429</v>
       </c>
-      <c r="I77" s="25">
-        <v>2958465</v>
-      </c>
-      <c r="J77" s="24">
-        <v>1</v>
-      </c>
-      <c r="K77" s="24">
-        <v>1</v>
-      </c>
-      <c r="L77" s="24">
-        <v>0</v>
-      </c>
-      <c r="M77" s="24">
-        <v>0</v>
-      </c>
-      <c r="N77" s="24">
-        <v>0</v>
-      </c>
-      <c r="O77" s="24">
-        <v>0</v>
-      </c>
-      <c r="P77" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="24">
-        <v>0</v>
-      </c>
-      <c r="R77" s="24">
+      <c r="I77" s="24">
+        <v>2958465</v>
+      </c>
+      <c r="J77" s="23">
+        <v>1</v>
+      </c>
+      <c r="K77" s="23">
+        <v>1</v>
+      </c>
+      <c r="L77" s="23">
+        <v>0</v>
+      </c>
+      <c r="M77" s="23">
+        <v>0</v>
+      </c>
+      <c r="N77" s="23">
+        <v>0</v>
+      </c>
+      <c r="O77" s="23">
+        <v>0</v>
+      </c>
+      <c r="P77" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="23">
+        <v>0</v>
+      </c>
+      <c r="R77" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B78" s="6">
         <v>43190</v>
@@ -5788,7 +5606,7 @@
         <v>2958465</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G78" s="5">
         <v>1</v>
@@ -5828,116 +5646,116 @@
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B79" s="23">
+      <c r="A79" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" s="22">
         <v>28768</v>
       </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23">
+      <c r="C79" s="22"/>
+      <c r="D79" s="22">
         <v>39132</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="22">
         <v>40689</v>
       </c>
-      <c r="F79" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G79" s="22">
-        <v>1</v>
-      </c>
-      <c r="H79" s="23">
+      <c r="F79" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G79" s="21">
+        <v>1</v>
+      </c>
+      <c r="H79" s="22">
         <v>39132</v>
       </c>
-      <c r="I79" s="23">
+      <c r="I79" s="22">
         <v>40689</v>
       </c>
-      <c r="J79" s="22">
-        <v>1</v>
-      </c>
-      <c r="K79" s="22">
-        <v>1</v>
-      </c>
-      <c r="L79" s="22">
-        <v>0</v>
-      </c>
-      <c r="M79" s="22">
-        <v>0</v>
-      </c>
-      <c r="N79" s="22">
-        <v>1</v>
-      </c>
-      <c r="O79" s="22">
-        <v>0</v>
-      </c>
-      <c r="P79" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="22">
-        <v>0</v>
-      </c>
-      <c r="R79" s="22">
+      <c r="J79" s="21">
+        <v>1</v>
+      </c>
+      <c r="K79" s="21">
+        <v>1</v>
+      </c>
+      <c r="L79" s="21">
+        <v>0</v>
+      </c>
+      <c r="M79" s="21">
+        <v>0</v>
+      </c>
+      <c r="N79" s="21">
+        <v>1</v>
+      </c>
+      <c r="O79" s="21">
+        <v>0</v>
+      </c>
+      <c r="P79" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="21">
+        <v>0</v>
+      </c>
+      <c r="R79" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A80" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B80" s="23">
+      <c r="A80" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="22">
         <v>28768</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23">
+      <c r="C80" s="22"/>
+      <c r="D80" s="22">
         <v>43212</v>
       </c>
-      <c r="E80" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="F80" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G80" s="22">
+      <c r="E80" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G80" s="21">
         <v>2</v>
       </c>
-      <c r="H80" s="23">
+      <c r="H80" s="22">
         <v>43212</v>
       </c>
-      <c r="I80" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="J80" s="22">
-        <v>1</v>
-      </c>
-      <c r="K80" s="22">
-        <v>1</v>
-      </c>
-      <c r="L80" s="22">
-        <v>0</v>
-      </c>
-      <c r="M80" s="22">
-        <v>0</v>
-      </c>
-      <c r="N80" s="22">
-        <v>0</v>
-      </c>
-      <c r="O80" s="22">
-        <v>0</v>
-      </c>
-      <c r="P80" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="22">
-        <v>0</v>
-      </c>
-      <c r="R80" s="22">
+      <c r="I80" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="J80" s="21">
+        <v>1</v>
+      </c>
+      <c r="K80" s="21">
+        <v>1</v>
+      </c>
+      <c r="L80" s="21">
+        <v>0</v>
+      </c>
+      <c r="M80" s="21">
+        <v>0</v>
+      </c>
+      <c r="N80" s="21">
+        <v>0</v>
+      </c>
+      <c r="O80" s="21">
+        <v>0</v>
+      </c>
+      <c r="P80" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="21">
+        <v>0</v>
+      </c>
+      <c r="R80" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B81" s="6">
         <v>32438</v>
@@ -5950,7 +5768,7 @@
         <v>2958465</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G81" s="5">
         <v>1</v>
@@ -5991,7 +5809,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B82" s="6">
         <v>34773</v>
@@ -6004,7 +5822,7 @@
         <v>42441</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G82" s="5">
         <v>1</v>
@@ -6044,116 +5862,116 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" s="23">
+      <c r="A83" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="22">
         <v>28819</v>
       </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23">
+      <c r="C83" s="22"/>
+      <c r="D83" s="22">
         <v>39621</v>
       </c>
-      <c r="E83" s="23">
+      <c r="E83" s="22">
         <v>41663</v>
       </c>
-      <c r="F83" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G83" s="22">
-        <v>1</v>
-      </c>
-      <c r="H83" s="23">
+      <c r="F83" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G83" s="21">
+        <v>1</v>
+      </c>
+      <c r="H83" s="22">
         <v>39621</v>
       </c>
-      <c r="I83" s="23">
+      <c r="I83" s="22">
         <v>41663</v>
       </c>
-      <c r="J83" s="22">
-        <v>1</v>
-      </c>
-      <c r="K83" s="22">
-        <v>1</v>
-      </c>
-      <c r="L83" s="22">
-        <v>0</v>
-      </c>
-      <c r="M83" s="22">
-        <v>0</v>
-      </c>
-      <c r="N83" s="22">
-        <v>1</v>
-      </c>
-      <c r="O83" s="22">
-        <v>0</v>
-      </c>
-      <c r="P83" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="22">
-        <v>0</v>
-      </c>
-      <c r="R83" s="22">
+      <c r="J83" s="21">
+        <v>1</v>
+      </c>
+      <c r="K83" s="21">
+        <v>1</v>
+      </c>
+      <c r="L83" s="21">
+        <v>0</v>
+      </c>
+      <c r="M83" s="21">
+        <v>0</v>
+      </c>
+      <c r="N83" s="21">
+        <v>1</v>
+      </c>
+      <c r="O83" s="21">
+        <v>0</v>
+      </c>
+      <c r="P83" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="21">
+        <v>0</v>
+      </c>
+      <c r="R83" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A84" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B84" s="23">
+      <c r="A84" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="22">
         <v>28819</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23">
+      <c r="C84" s="22"/>
+      <c r="D84" s="22">
         <v>41976</v>
       </c>
-      <c r="E84" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="F84" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G84" s="22">
+      <c r="E84" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G84" s="21">
         <v>2</v>
       </c>
-      <c r="H84" s="23">
+      <c r="H84" s="22">
         <v>41976</v>
       </c>
-      <c r="I84" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="J84" s="22">
-        <v>1</v>
-      </c>
-      <c r="K84" s="22">
-        <v>1</v>
-      </c>
-      <c r="L84" s="22">
-        <v>0</v>
-      </c>
-      <c r="M84" s="22">
-        <v>0</v>
-      </c>
-      <c r="N84" s="22">
-        <v>0</v>
-      </c>
-      <c r="O84" s="22">
-        <v>0</v>
-      </c>
-      <c r="P84" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="22">
-        <v>0</v>
-      </c>
-      <c r="R84" s="22">
+      <c r="I84" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="J84" s="21">
+        <v>1</v>
+      </c>
+      <c r="K84" s="21">
+        <v>1</v>
+      </c>
+      <c r="L84" s="21">
+        <v>0</v>
+      </c>
+      <c r="M84" s="21">
+        <v>0</v>
+      </c>
+      <c r="N84" s="21">
+        <v>0</v>
+      </c>
+      <c r="O84" s="21">
+        <v>0</v>
+      </c>
+      <c r="P84" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="21">
+        <v>0</v>
+      </c>
+      <c r="R84" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B85" s="6">
         <v>28035</v>
@@ -6166,7 +5984,7 @@
         <v>2958465</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G85" s="5">
         <v>1</v>
@@ -6207,7 +6025,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B86" s="6">
         <v>27878</v>
@@ -6220,7 +6038,7 @@
         <v>43931</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G86" s="5">
         <v>1</v>
@@ -6260,116 +6078,116 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A87" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B87" s="23">
+      <c r="A87" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87" s="22">
         <v>19188</v>
       </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23">
+      <c r="C87" s="22"/>
+      <c r="D87" s="22">
         <v>40240</v>
       </c>
-      <c r="E87" s="23">
+      <c r="E87" s="22">
         <v>42380</v>
       </c>
-      <c r="F87" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G87" s="22">
-        <v>1</v>
-      </c>
-      <c r="H87" s="23">
+      <c r="F87" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G87" s="21">
+        <v>1</v>
+      </c>
+      <c r="H87" s="22">
         <v>40240</v>
       </c>
-      <c r="I87" s="23">
+      <c r="I87" s="22">
         <v>42380</v>
       </c>
-      <c r="J87" s="22">
-        <v>1</v>
-      </c>
-      <c r="K87" s="22">
-        <v>1</v>
-      </c>
-      <c r="L87" s="22">
-        <v>0</v>
-      </c>
-      <c r="M87" s="22">
-        <v>0</v>
-      </c>
-      <c r="N87" s="22">
-        <v>1</v>
-      </c>
-      <c r="O87" s="22">
-        <v>0</v>
-      </c>
-      <c r="P87" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="22">
-        <v>0</v>
-      </c>
-      <c r="R87" s="22">
+      <c r="J87" s="21">
+        <v>1</v>
+      </c>
+      <c r="K87" s="21">
+        <v>1</v>
+      </c>
+      <c r="L87" s="21">
+        <v>0</v>
+      </c>
+      <c r="M87" s="21">
+        <v>0</v>
+      </c>
+      <c r="N87" s="21">
+        <v>1</v>
+      </c>
+      <c r="O87" s="21">
+        <v>0</v>
+      </c>
+      <c r="P87" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="21">
+        <v>0</v>
+      </c>
+      <c r="R87" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="B88" s="23">
+      <c r="A88" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="22">
         <v>19188</v>
       </c>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23">
+      <c r="C88" s="22"/>
+      <c r="D88" s="22">
         <v>43559</v>
       </c>
-      <c r="E88" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="F88" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G88" s="22">
+      <c r="E88" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G88" s="21">
         <v>2</v>
       </c>
-      <c r="H88" s="23">
+      <c r="H88" s="22">
         <v>43559</v>
       </c>
-      <c r="I88" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="J88" s="22">
-        <v>1</v>
-      </c>
-      <c r="K88" s="22">
-        <v>1</v>
-      </c>
-      <c r="L88" s="22">
-        <v>0</v>
-      </c>
-      <c r="M88" s="22">
-        <v>0</v>
-      </c>
-      <c r="N88" s="22">
-        <v>0</v>
-      </c>
-      <c r="O88" s="22">
-        <v>0</v>
-      </c>
-      <c r="P88" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="22">
-        <v>0</v>
-      </c>
-      <c r="R88" s="22">
+      <c r="I88" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="J88" s="21">
+        <v>1</v>
+      </c>
+      <c r="K88" s="21">
+        <v>1</v>
+      </c>
+      <c r="L88" s="21">
+        <v>0</v>
+      </c>
+      <c r="M88" s="21">
+        <v>0</v>
+      </c>
+      <c r="N88" s="21">
+        <v>0</v>
+      </c>
+      <c r="O88" s="21">
+        <v>0</v>
+      </c>
+      <c r="P88" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="21">
+        <v>0</v>
+      </c>
+      <c r="R88" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B89" s="6">
         <v>22940</v>
@@ -6382,7 +6200,7 @@
         <v>2958465</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G89" s="5">
         <v>1</v>
@@ -6423,7 +6241,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B90" s="6">
         <v>13195</v>
@@ -6436,7 +6254,7 @@
         <v>2958465</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G90" s="5">
         <v>1</v>
@@ -6477,7 +6295,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B91" s="6">
         <v>26825</v>
@@ -6490,7 +6308,7 @@
         <v>2958465</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G91" s="5">
         <v>1</v>
@@ -6531,7 +6349,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B92" s="6">
         <v>27074</v>
@@ -6544,7 +6362,7 @@
         <v>2958465</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G92" s="5">
         <v>1</v>
@@ -6585,7 +6403,7 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B93" s="6">
         <v>29696</v>
@@ -6598,7 +6416,7 @@
         <v>2958465</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G93" s="5">
         <v>1</v>
@@ -6639,7 +6457,7 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B94" s="6">
         <v>36245</v>
@@ -6652,7 +6470,7 @@
         <v>2958465</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G94" s="5">
         <v>1</v>
@@ -6693,7 +6511,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B95" s="6">
         <v>32848</v>
@@ -6706,7 +6524,7 @@
         <v>2958465</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G95" s="5">
         <v>1</v>
@@ -6747,7 +6565,7 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B96" s="6">
         <v>38490</v>
@@ -6760,7 +6578,7 @@
         <v>2958465</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G96" s="5">
         <v>1</v>
@@ -6801,7 +6619,7 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B97" s="6">
         <v>26549</v>
@@ -6814,7 +6632,7 @@
         <v>2958465</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G97" s="5">
         <v>1</v>
@@ -6855,7 +6673,7 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B98" s="6">
         <v>17833</v>
@@ -6868,7 +6686,7 @@
         <v>2958465</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G98" s="5">
         <v>1</v>
@@ -6909,7 +6727,7 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B99" s="6">
         <v>25843</v>
@@ -6922,7 +6740,7 @@
         <v>2958465</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G99" s="5">
         <v>1</v>
@@ -6963,7 +6781,7 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B100" s="6">
         <v>25241</v>
@@ -6976,7 +6794,7 @@
         <v>2958465</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G100" s="5">
         <v>1</v>
@@ -7017,7 +6835,7 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B101" s="6">
         <v>31866</v>
@@ -7030,7 +6848,7 @@
         <v>2958465</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G101" s="5">
         <v>1</v>
@@ -7071,7 +6889,7 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B102" s="6">
         <v>26912</v>
@@ -7084,7 +6902,7 @@
         <v>2958465</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G102" s="5">
         <v>1</v>
@@ -7124,278 +6942,278 @@
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B103" s="23">
+      <c r="A103" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" s="22">
         <v>14426</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23">
+      <c r="C103" s="22"/>
+      <c r="D103" s="22">
         <v>28866</v>
       </c>
-      <c r="E103" s="23">
+      <c r="E103" s="22">
         <v>35624</v>
       </c>
-      <c r="F103" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G103" s="22">
-        <v>1</v>
-      </c>
-      <c r="H103" s="23">
+      <c r="F103" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G103" s="21">
+        <v>1</v>
+      </c>
+      <c r="H103" s="22">
         <v>28866</v>
       </c>
-      <c r="I103" s="23">
+      <c r="I103" s="22">
         <v>35624</v>
       </c>
-      <c r="J103" s="22">
-        <v>1</v>
-      </c>
-      <c r="K103" s="22">
-        <v>1</v>
-      </c>
-      <c r="L103" s="22">
-        <v>0</v>
-      </c>
-      <c r="M103" s="22">
-        <v>0</v>
-      </c>
-      <c r="N103" s="22">
-        <v>1</v>
-      </c>
-      <c r="O103" s="22">
-        <v>0</v>
-      </c>
-      <c r="P103" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q103" s="22">
-        <v>0</v>
-      </c>
-      <c r="R103" s="22">
+      <c r="J103" s="21">
+        <v>1</v>
+      </c>
+      <c r="K103" s="21">
+        <v>1</v>
+      </c>
+      <c r="L103" s="21">
+        <v>0</v>
+      </c>
+      <c r="M103" s="21">
+        <v>0</v>
+      </c>
+      <c r="N103" s="21">
+        <v>1</v>
+      </c>
+      <c r="O103" s="21">
+        <v>0</v>
+      </c>
+      <c r="P103" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="21">
+        <v>0</v>
+      </c>
+      <c r="R103" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A104" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B104" s="23">
+      <c r="A104" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B104" s="22">
         <v>14426</v>
       </c>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23">
+      <c r="C104" s="22"/>
+      <c r="D104" s="22">
         <v>39059</v>
       </c>
-      <c r="E104" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="F104" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G104" s="22">
+      <c r="E104" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G104" s="21">
         <v>2</v>
       </c>
-      <c r="H104" s="23">
+      <c r="H104" s="22">
         <v>39059</v>
       </c>
-      <c r="I104" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="J104" s="22">
-        <v>1</v>
-      </c>
-      <c r="K104" s="22">
-        <v>1</v>
-      </c>
-      <c r="L104" s="22">
-        <v>0</v>
-      </c>
-      <c r="M104" s="22">
-        <v>0</v>
-      </c>
-      <c r="N104" s="22">
-        <v>0</v>
-      </c>
-      <c r="O104" s="22">
-        <v>0</v>
-      </c>
-      <c r="P104" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="22">
-        <v>0</v>
-      </c>
-      <c r="R104" s="22">
+      <c r="I104" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="J104" s="21">
+        <v>1</v>
+      </c>
+      <c r="K104" s="21">
+        <v>1</v>
+      </c>
+      <c r="L104" s="21">
+        <v>0</v>
+      </c>
+      <c r="M104" s="21">
+        <v>0</v>
+      </c>
+      <c r="N104" s="21">
+        <v>0</v>
+      </c>
+      <c r="O104" s="21">
+        <v>0</v>
+      </c>
+      <c r="P104" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="21">
+        <v>0</v>
+      </c>
+      <c r="R104" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A105" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="B105" s="27">
+      <c r="A105" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="26">
         <v>32137</v>
       </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27">
+      <c r="C105" s="26"/>
+      <c r="D105" s="26">
         <v>41724</v>
       </c>
-      <c r="E105" s="27">
+      <c r="E105" s="26">
         <v>42264</v>
       </c>
-      <c r="F105" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G105" s="26">
-        <v>1</v>
-      </c>
-      <c r="H105" s="27">
+      <c r="F105" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G105" s="25">
+        <v>1</v>
+      </c>
+      <c r="H105" s="26">
         <v>41724</v>
       </c>
-      <c r="I105" s="27">
+      <c r="I105" s="26">
         <v>42264</v>
       </c>
-      <c r="J105" s="26">
-        <v>1</v>
-      </c>
-      <c r="K105" s="26">
-        <v>1</v>
-      </c>
-      <c r="L105" s="26">
-        <v>0</v>
-      </c>
-      <c r="M105" s="26">
-        <v>0</v>
-      </c>
-      <c r="N105" s="26">
-        <v>1</v>
-      </c>
-      <c r="O105" s="26">
-        <v>0</v>
-      </c>
-      <c r="P105" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q105" s="26">
-        <v>0</v>
-      </c>
-      <c r="R105" s="26">
+      <c r="J105" s="25">
+        <v>1</v>
+      </c>
+      <c r="K105" s="25">
+        <v>1</v>
+      </c>
+      <c r="L105" s="25">
+        <v>0</v>
+      </c>
+      <c r="M105" s="25">
+        <v>0</v>
+      </c>
+      <c r="N105" s="25">
+        <v>1</v>
+      </c>
+      <c r="O105" s="25">
+        <v>0</v>
+      </c>
+      <c r="P105" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="25">
+        <v>0</v>
+      </c>
+      <c r="R105" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="B106" s="27">
+      <c r="A106" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" s="26">
         <v>32137</v>
       </c>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27">
+      <c r="C106" s="26"/>
+      <c r="D106" s="26">
         <v>42752</v>
       </c>
-      <c r="E106" s="27">
+      <c r="E106" s="26">
         <v>42994</v>
       </c>
-      <c r="F106" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G106" s="26">
+      <c r="F106" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G106" s="25">
         <v>2</v>
       </c>
-      <c r="H106" s="27">
+      <c r="H106" s="26">
         <v>42752</v>
       </c>
-      <c r="I106" s="27">
+      <c r="I106" s="26">
         <v>42994</v>
       </c>
-      <c r="J106" s="26">
-        <v>1</v>
-      </c>
-      <c r="K106" s="26">
-        <v>1</v>
-      </c>
-      <c r="L106" s="26">
-        <v>0</v>
-      </c>
-      <c r="M106" s="26">
-        <v>0</v>
-      </c>
-      <c r="N106" s="26">
-        <v>1</v>
-      </c>
-      <c r="O106" s="26">
-        <v>1</v>
-      </c>
-      <c r="P106" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="26">
-        <v>0</v>
-      </c>
-      <c r="R106" s="26">
+      <c r="J106" s="25">
+        <v>1</v>
+      </c>
+      <c r="K106" s="25">
+        <v>1</v>
+      </c>
+      <c r="L106" s="25">
+        <v>0</v>
+      </c>
+      <c r="M106" s="25">
+        <v>0</v>
+      </c>
+      <c r="N106" s="25">
+        <v>1</v>
+      </c>
+      <c r="O106" s="25">
+        <v>1</v>
+      </c>
+      <c r="P106" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="25">
+        <v>0</v>
+      </c>
+      <c r="R106" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A107" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="B107" s="27">
+      <c r="A107" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B107" s="26">
         <v>32137</v>
       </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27">
+      <c r="C107" s="26"/>
+      <c r="D107" s="26">
         <v>43274</v>
       </c>
-      <c r="E107" s="27">
-        <v>2958465</v>
-      </c>
-      <c r="F107" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="G107" s="26">
+      <c r="E107" s="26">
+        <v>2958465</v>
+      </c>
+      <c r="F107" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G107" s="25">
         <v>3</v>
       </c>
-      <c r="H107" s="27">
+      <c r="H107" s="26">
         <v>43274</v>
       </c>
-      <c r="I107" s="27">
-        <v>2958465</v>
-      </c>
-      <c r="J107" s="26">
-        <v>1</v>
-      </c>
-      <c r="K107" s="26">
-        <v>1</v>
-      </c>
-      <c r="L107" s="26">
-        <v>0</v>
-      </c>
-      <c r="M107" s="26">
-        <v>0</v>
-      </c>
-      <c r="N107" s="26">
-        <v>0</v>
-      </c>
-      <c r="O107" s="26">
-        <v>0</v>
-      </c>
-      <c r="P107" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="26">
-        <v>0</v>
-      </c>
-      <c r="R107" s="26">
+      <c r="I107" s="26">
+        <v>2958465</v>
+      </c>
+      <c r="J107" s="25">
+        <v>1</v>
+      </c>
+      <c r="K107" s="25">
+        <v>1</v>
+      </c>
+      <c r="L107" s="25">
+        <v>0</v>
+      </c>
+      <c r="M107" s="25">
+        <v>0</v>
+      </c>
+      <c r="N107" s="25">
+        <v>0</v>
+      </c>
+      <c r="O107" s="25">
+        <v>0</v>
+      </c>
+      <c r="P107" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="25">
+        <v>0</v>
+      </c>
+      <c r="R107" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B108" s="6">
         <v>20919</v>
@@ -7408,7 +7226,7 @@
         <v>44073</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G108" s="5">
         <v>1</v>
@@ -7448,170 +7266,170 @@
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A109" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B109" s="23">
+      <c r="A109" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="22">
         <v>25336</v>
       </c>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23">
+      <c r="C109" s="22"/>
+      <c r="D109" s="22">
         <v>35642</v>
       </c>
-      <c r="E109" s="23">
+      <c r="E109" s="22">
         <v>40710</v>
       </c>
-      <c r="F109" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G109" s="22">
-        <v>1</v>
-      </c>
-      <c r="H109" s="23">
+      <c r="F109" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G109" s="21">
+        <v>1</v>
+      </c>
+      <c r="H109" s="22">
         <v>35642</v>
       </c>
-      <c r="I109" s="23">
+      <c r="I109" s="22">
         <v>40710</v>
       </c>
-      <c r="J109" s="22">
-        <v>1</v>
-      </c>
-      <c r="K109" s="22">
-        <v>1</v>
-      </c>
-      <c r="L109" s="22">
-        <v>0</v>
-      </c>
-      <c r="M109" s="22">
-        <v>0</v>
-      </c>
-      <c r="N109" s="22">
-        <v>1</v>
-      </c>
-      <c r="O109" s="22">
-        <v>0</v>
-      </c>
-      <c r="P109" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q109" s="22">
-        <v>0</v>
-      </c>
-      <c r="R109" s="22">
+      <c r="J109" s="21">
+        <v>1</v>
+      </c>
+      <c r="K109" s="21">
+        <v>1</v>
+      </c>
+      <c r="L109" s="21">
+        <v>0</v>
+      </c>
+      <c r="M109" s="21">
+        <v>0</v>
+      </c>
+      <c r="N109" s="21">
+        <v>1</v>
+      </c>
+      <c r="O109" s="21">
+        <v>0</v>
+      </c>
+      <c r="P109" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="21">
+        <v>0</v>
+      </c>
+      <c r="R109" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A110" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B110" s="23">
+      <c r="A110" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" s="22">
         <v>25336</v>
       </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23">
+      <c r="C110" s="22"/>
+      <c r="D110" s="22">
         <v>41218</v>
       </c>
-      <c r="E110" s="23">
+      <c r="E110" s="22">
         <v>41413</v>
       </c>
-      <c r="F110" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G110" s="22">
+      <c r="F110" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G110" s="21">
         <v>2</v>
       </c>
-      <c r="H110" s="23">
+      <c r="H110" s="22">
         <v>41218</v>
       </c>
-      <c r="I110" s="23">
+      <c r="I110" s="22">
         <v>41413</v>
       </c>
-      <c r="J110" s="22">
-        <v>1</v>
-      </c>
-      <c r="K110" s="22">
-        <v>1</v>
-      </c>
-      <c r="L110" s="22">
-        <v>0</v>
-      </c>
-      <c r="M110" s="22">
-        <v>0</v>
-      </c>
-      <c r="N110" s="22">
-        <v>1</v>
-      </c>
-      <c r="O110" s="22">
-        <v>1</v>
-      </c>
-      <c r="P110" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="22">
-        <v>0</v>
-      </c>
-      <c r="R110" s="22">
+      <c r="J110" s="21">
+        <v>1</v>
+      </c>
+      <c r="K110" s="21">
+        <v>1</v>
+      </c>
+      <c r="L110" s="21">
+        <v>0</v>
+      </c>
+      <c r="M110" s="21">
+        <v>0</v>
+      </c>
+      <c r="N110" s="21">
+        <v>1</v>
+      </c>
+      <c r="O110" s="21">
+        <v>1</v>
+      </c>
+      <c r="P110" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="21">
+        <v>0</v>
+      </c>
+      <c r="R110" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B111" s="23">
+      <c r="A111" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" s="22">
         <v>25336</v>
       </c>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23">
+      <c r="C111" s="22"/>
+      <c r="D111" s="22">
         <v>43522</v>
       </c>
-      <c r="E111" s="23">
+      <c r="E111" s="22">
         <v>43965</v>
       </c>
-      <c r="F111" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G111" s="22">
+      <c r="F111" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G111" s="21">
         <v>3</v>
       </c>
-      <c r="H111" s="23">
+      <c r="H111" s="22">
         <v>43522</v>
       </c>
-      <c r="I111" s="23">
+      <c r="I111" s="22">
         <v>43965</v>
       </c>
-      <c r="J111" s="22">
-        <v>1</v>
-      </c>
-      <c r="K111" s="22">
-        <v>1</v>
-      </c>
-      <c r="L111" s="22">
-        <v>0</v>
-      </c>
-      <c r="M111" s="22">
-        <v>0</v>
-      </c>
-      <c r="N111" s="22">
-        <v>0</v>
-      </c>
-      <c r="O111" s="22">
-        <v>0</v>
-      </c>
-      <c r="P111" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="22">
-        <v>0</v>
-      </c>
-      <c r="R111" s="22">
+      <c r="J111" s="21">
+        <v>1</v>
+      </c>
+      <c r="K111" s="21">
+        <v>1</v>
+      </c>
+      <c r="L111" s="21">
+        <v>0</v>
+      </c>
+      <c r="M111" s="21">
+        <v>0</v>
+      </c>
+      <c r="N111" s="21">
+        <v>0</v>
+      </c>
+      <c r="O111" s="21">
+        <v>0</v>
+      </c>
+      <c r="P111" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="21">
+        <v>0</v>
+      </c>
+      <c r="R111" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B112" s="6">
         <v>25761</v>
@@ -7624,7 +7442,7 @@
         <v>2958465</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G112" s="5">
         <v>1</v>
@@ -7664,116 +7482,116 @@
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A113" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B113" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23">
+      <c r="A113" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22">
         <v>31478</v>
       </c>
-      <c r="E113" s="23">
+      <c r="E113" s="22">
         <v>42258</v>
       </c>
-      <c r="F113" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G113" s="22">
-        <v>1</v>
-      </c>
-      <c r="H113" s="23">
+      <c r="F113" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G113" s="21">
+        <v>1</v>
+      </c>
+      <c r="H113" s="22">
         <v>31478</v>
       </c>
-      <c r="I113" s="23">
+      <c r="I113" s="22">
         <v>42258</v>
       </c>
-      <c r="J113" s="22">
-        <v>1</v>
-      </c>
-      <c r="K113" s="22">
-        <v>1</v>
-      </c>
-      <c r="L113" s="22">
-        <v>0</v>
-      </c>
-      <c r="M113" s="22">
-        <v>0</v>
-      </c>
-      <c r="N113" s="22">
-        <v>1</v>
-      </c>
-      <c r="O113" s="22">
-        <v>0</v>
-      </c>
-      <c r="P113" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q113" s="22">
-        <v>0</v>
-      </c>
-      <c r="R113" s="22">
+      <c r="J113" s="21">
+        <v>1</v>
+      </c>
+      <c r="K113" s="21">
+        <v>1</v>
+      </c>
+      <c r="L113" s="21">
+        <v>0</v>
+      </c>
+      <c r="M113" s="21">
+        <v>0</v>
+      </c>
+      <c r="N113" s="21">
+        <v>1</v>
+      </c>
+      <c r="O113" s="21">
+        <v>0</v>
+      </c>
+      <c r="P113" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="21">
+        <v>0</v>
+      </c>
+      <c r="R113" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A114" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B114" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23">
+      <c r="A114" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22">
         <v>43270</v>
       </c>
-      <c r="E114" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="F114" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G114" s="22">
+      <c r="E114" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G114" s="21">
         <v>2</v>
       </c>
-      <c r="H114" s="23">
+      <c r="H114" s="22">
         <v>43270</v>
       </c>
-      <c r="I114" s="23">
-        <v>2958465</v>
-      </c>
-      <c r="J114" s="22">
-        <v>1</v>
-      </c>
-      <c r="K114" s="22">
-        <v>1</v>
-      </c>
-      <c r="L114" s="22">
-        <v>0</v>
-      </c>
-      <c r="M114" s="22">
-        <v>0</v>
-      </c>
-      <c r="N114" s="22">
-        <v>0</v>
-      </c>
-      <c r="O114" s="22">
-        <v>0</v>
-      </c>
-      <c r="P114" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q114" s="22">
-        <v>0</v>
-      </c>
-      <c r="R114" s="22">
+      <c r="I114" s="22">
+        <v>2958465</v>
+      </c>
+      <c r="J114" s="21">
+        <v>1</v>
+      </c>
+      <c r="K114" s="21">
+        <v>1</v>
+      </c>
+      <c r="L114" s="21">
+        <v>0</v>
+      </c>
+      <c r="M114" s="21">
+        <v>0</v>
+      </c>
+      <c r="N114" s="21">
+        <v>0</v>
+      </c>
+      <c r="O114" s="21">
+        <v>0</v>
+      </c>
+      <c r="P114" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="21">
+        <v>0</v>
+      </c>
+      <c r="R114" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B115" s="6">
         <v>41316</v>
@@ -7786,7 +7604,7 @@
         <v>44410</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G115" s="5">
         <v>1</v>
@@ -7827,7 +7645,7 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B116" s="6">
         <v>14982</v>
@@ -7840,7 +7658,7 @@
         <v>2958465</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G116" s="5">
         <v>1</v>
@@ -7885,6 +7703,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -8129,28 +7968,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{157D3097-6FB3-44DD-B527-ED767981CE0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8167,23 +8004,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
-    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>